--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F6159-E1A1-4994-ABBE-3AF1432632A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C178CE-27A1-4290-A377-D8A2015E86E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -488,16 +488,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,11 +510,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +531,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +603,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2876550" cy="542925"/>
+    <xdr:ext cx="3409950" cy="1076325"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -617,8 +617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3912488" y="3513300"/>
-          <a:ext cx="2867025" cy="533400"/>
+          <a:off x="12468225" y="762000"/>
+          <a:ext cx="3409950" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,9 +661,8 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Longitud máxima de 50 caracteres y solo debe</a:t>
+            <a:t>Longitud máxima de 50 caracteres.</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -675,19 +674,75 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>admitir letras.</a:t>
+            <a:t>Si no se</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> completa este campo, se mostrará el siguiente mensaje debajo de este:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Nombre de usuario requerido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -696,11 +751,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2628900" cy="1809750"/>
+    <xdr:ext cx="2619376" cy="1519238"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -714,10 +769,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9848850" y="1009650"/>
-          <a:ext cx="2628900" cy="1809750"/>
-          <a:chOff x="4041075" y="2879813"/>
-          <a:chExt cx="2609700" cy="1800300"/>
+          <a:off x="9848849" y="1300163"/>
+          <a:ext cx="2619376" cy="1519238"/>
+          <a:chOff x="4041075" y="3168809"/>
+          <a:chExt cx="2600246" cy="1511305"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -734,9 +789,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4041075" y="2879813"/>
-            <a:ext cx="2609700" cy="1800300"/>
+          <a:xfrm flipV="1">
+            <a:off x="4041075" y="3168809"/>
+            <a:ext cx="2600246" cy="1511305"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -763,7 +818,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2876550" cy="542925"/>
+    <xdr:ext cx="3771900" cy="1466850"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 5">
@@ -777,8 +832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3912488" y="3513300"/>
-          <a:ext cx="2867025" cy="533400"/>
+          <a:off x="12439650" y="2095500"/>
+          <a:ext cx="3771900" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,6 +878,96 @@
             </a:rPr>
             <a:t>Longitud máxima de 50 caracteres y debe ser de formato email.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dependiendo del error,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> se mostrará debajo del campo uno de los siguientes mensajes:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Correo electrónico requerido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ingrese un correo válido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -833,10 +978,10 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2838450" cy="666750"/>
+    <xdr:ext cx="2838450" cy="1371600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6">
@@ -850,8 +995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3931538" y="3451388"/>
-          <a:ext cx="2828925" cy="657225"/>
+          <a:off x="12430125" y="4191000"/>
+          <a:ext cx="2838450" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,6 +1041,78 @@
             </a:rPr>
             <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Si no se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> completa este campo, se mostrará el siguiente mensaje debajo de este:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Contraseña requerida</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -904,12 +1121,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2933700" cy="695325"/>
+    <xdr:ext cx="3295650" cy="2562225"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7">
@@ -923,8 +1140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3883913" y="3437100"/>
-          <a:ext cx="2924175" cy="685800"/>
+          <a:off x="2076450" y="1190625"/>
+          <a:ext cx="3295650" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,6 +1165,48 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Si</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> los datos ingresados son correctos, se registran los datos, se redirige a la pantalla de Login y se muestra un modal emergente en la esquina superior derecha con el mensaje "Registro exitoso".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>En caso de que no se completará el formulario, al hacer clic se mostrará el mensaje de campo requerido.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
@@ -957,19 +1216,29 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Al hacer clic se debe guardar la información del cliente en la base de datos y se debe mostrar la pantalla de inicio.</a:t>
+            <a:t>Si ocurre un error se mostrará un modal emergente, en la esquina superior derecha, indicando el mensaje de error.</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -978,11 +1247,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2590800" cy="981075"/>
+    <xdr:ext cx="2581276" cy="504828"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -996,10 +1265,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9858375" y="2352675"/>
-          <a:ext cx="2590800" cy="981075"/>
-          <a:chOff x="4060125" y="3298913"/>
-          <a:chExt cx="2571600" cy="962100"/>
+          <a:off x="9858374" y="2828925"/>
+          <a:ext cx="2581276" cy="504828"/>
+          <a:chOff x="4060125" y="3765951"/>
+          <a:chExt cx="2562147" cy="495064"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1016,9 +1285,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4060125" y="3298913"/>
-            <a:ext cx="2571600" cy="962100"/>
+          <a:xfrm flipV="1">
+            <a:off x="4060125" y="3765951"/>
+            <a:ext cx="2562147" cy="495064"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1041,11 +1310,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2628900" cy="76200"/>
+    <xdr:ext cx="2571751" cy="1038243"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Shape 2">
@@ -1059,10 +1328,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="3686175"/>
-          <a:ext cx="2628900" cy="76200"/>
-          <a:chOff x="4041075" y="3751425"/>
-          <a:chExt cx="2609700" cy="57300"/>
+          <a:off x="9858374" y="3838575"/>
+          <a:ext cx="2571751" cy="1038243"/>
+          <a:chOff x="4041075" y="4317263"/>
+          <a:chExt cx="2600071" cy="87969"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1080,8 +1349,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4041075" y="3751425"/>
-            <a:ext cx="2609700" cy="57300"/>
+            <a:off x="4041075" y="4317263"/>
+            <a:ext cx="2600071" cy="87969"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1104,11 +1373,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3305175" cy="1381125"/>
+    <xdr:ext cx="3295652" cy="1671641"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="12" name="Shape 2">
@@ -1122,10 +1391,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5362575" y="2762250"/>
-          <a:ext cx="3305175" cy="1381125"/>
-          <a:chOff x="3702863" y="3099038"/>
-          <a:chExt cx="3286200" cy="1362000"/>
+          <a:off x="5372100" y="2471738"/>
+          <a:ext cx="3295652" cy="1671641"/>
+          <a:chOff x="3712334" y="2812549"/>
+          <a:chExt cx="3276732" cy="1648493"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1142,9 +1411,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3702863" y="3099038"/>
-            <a:ext cx="3286200" cy="1362000"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3712334" y="2812549"/>
+            <a:ext cx="3276732" cy="1648493"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1230,9 +1499,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2552700" cy="495300"/>
     <xdr:sp macro="" textlink="">
@@ -1248,8 +1517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4074413" y="3537113"/>
-          <a:ext cx="2543175" cy="485775"/>
+          <a:off x="2552700" y="4048125"/>
+          <a:ext cx="2552700" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2644,11 +2913,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2133600" cy="561975"/>
+    <xdr:ext cx="2809875" cy="1333499"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 13">
@@ -2662,8 +2931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4283963" y="3503775"/>
-          <a:ext cx="2124075" cy="552450"/>
+          <a:off x="11372849" y="476251"/>
+          <a:ext cx="2809875" cy="1333499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,6 +2977,116 @@
             </a:rPr>
             <a:t>Longitud máxima de 50 caracteres y debe ser de formato email.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Dependiendo del error,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> se mostrará debajo del campo uno de los siguientes mensajes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Correo electrónico requerido</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Ingrese un correo válido</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2782,9 +3161,9 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2638425" cy="857250"/>
+    <xdr:ext cx="3086100" cy="1819276"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 15">
@@ -2798,8 +3177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="3356138"/>
-          <a:ext cx="2628900" cy="847725"/>
+          <a:off x="11258550" y="2171699"/>
+          <a:ext cx="3086100" cy="1819276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2842,7 +3221,66 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. Campo requerido.</a:t>
+            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Si no se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ingresa la contraseña, se mostrará el siguiente mensaje debajo del campo:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Contraseña requerida</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -2887,7 +3325,7 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="5" idx="1"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2916,11 +3354,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2276475" cy="542925"/>
+    <xdr:ext cx="3495676" cy="1704975"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 17">
@@ -2934,8 +3372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4212525" y="3513300"/>
-          <a:ext cx="2266950" cy="533400"/>
+          <a:off x="11401424" y="4591049"/>
+          <a:ext cx="3495676" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2974,13 +3412,112 @@
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de login.</a:t>
+            <a:t>Si</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> los datos ingresados son correctos, nos redirige a la pantalla de inicio.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>En caso de que no se completará el formulario, al hacer clic se mostrará el mensaje de campo requerido.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Si ocurre un error se mostrará un modal emergente, en la esquina superior derecha, indicando el mensaje de error.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2988,12 +3525,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85893</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3152775" cy="38100"/>
+    <xdr:ext cx="3581398" cy="1738157"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -3007,10 +3544,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8229600" y="4076700"/>
-          <a:ext cx="3152775" cy="38100"/>
-          <a:chOff x="3769613" y="3770475"/>
-          <a:chExt cx="3152700" cy="18900"/>
+          <a:off x="7820026" y="3705393"/>
+          <a:ext cx="3581398" cy="1738157"/>
+          <a:chOff x="3788663" y="4143751"/>
+          <a:chExt cx="3152698" cy="28270"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3028,8 +3565,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3769613" y="3770475"/>
-            <a:ext cx="3152700" cy="18900"/>
+            <a:off x="3788663" y="4143751"/>
+            <a:ext cx="3152698" cy="28270"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3051,18 +3588,79 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76368</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2609850" cy="647700"/>
+    <xdr:ext cx="1447801" cy="1781007"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2AC4CB-AF1C-4C69-9C82-DC8AC3C974A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="6457949" y="4286418"/>
+          <a:ext cx="1447801" cy="1781007"/>
+          <a:chOff x="3788663" y="4143751"/>
+          <a:chExt cx="3152698" cy="28270"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Shape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84750C21-4F20-4640-99D3-34E8AD8F4F56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3788663" y="4143751"/>
+            <a:ext cx="3152698" cy="28270"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2600325" cy="447676"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 19">
+        <xdr:cNvPr id="23" name="Shape 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE2AF81-0E40-4D8F-B0BC-166987B1C1BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,8 +3668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4045838" y="3460913"/>
-          <a:ext cx="2600325" cy="638175"/>
+          <a:off x="3867149" y="6057899"/>
+          <a:ext cx="2600325" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,82 +3703,17 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se debe verificar en la bd que sea un usuario registrado y su contraseña es correcta, luego redirigir a la pantalla de inicio.</a:t>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Al hacer clic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> debe redirigir a la pantalla de Registro</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3190875" cy="1000125"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3857625" y="2505075"/>
-          <a:ext cx="3190875" cy="1000125"/>
-          <a:chOff x="3760088" y="3284700"/>
-          <a:chExt cx="3171825" cy="990600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Shape 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3760088" y="3284700"/>
-            <a:ext cx="3171825" cy="990600"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -8510,8 +9043,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8555,11 +9088,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8584,9 +9117,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -8611,11 +9144,11 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="2"/>
@@ -8642,11 +9175,11 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="2"/>
@@ -8673,11 +9206,11 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="2"/>
@@ -8732,72 +9265,72 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>93</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>5</v>
       </c>
       <c r="I9" s="2"/>
@@ -8820,26 +9353,26 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>88</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="2"/>
@@ -8862,28 +9395,28 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>85</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>100</v>
       </c>
       <c r="I11" s="2"/>
@@ -8906,26 +9439,26 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>81</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>8</v>
       </c>
       <c r="I12" s="2"/>
@@ -8948,28 +9481,28 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>75</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>13</v>
       </c>
       <c r="I13" s="2"/>
@@ -8992,26 +9525,26 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>70</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>20</v>
       </c>
       <c r="I14" s="2"/>
@@ -9034,28 +9567,28 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>68</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>40</v>
       </c>
       <c r="I15" s="2"/>
@@ -9078,26 +9611,26 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>62</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>8</v>
       </c>
       <c r="I16" s="2"/>
@@ -9120,28 +9653,28 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>50</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>8</v>
       </c>
       <c r="I17" s="2"/>
@@ -9164,26 +9697,26 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>48</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>13</v>
       </c>
       <c r="I18" s="2"/>
@@ -9206,26 +9739,26 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>48</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>13</v>
       </c>
       <c r="I19" s="2"/>
@@ -9248,26 +9781,26 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>47</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>8</v>
       </c>
       <c r="I20" s="2"/>
@@ -9290,28 +9823,28 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>42</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>8</v>
       </c>
       <c r="I21" s="2"/>
@@ -9334,26 +9867,26 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>38</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>13</v>
       </c>
       <c r="I22" s="2"/>
@@ -9376,28 +9909,28 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>25</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>20</v>
       </c>
       <c r="I23" s="2"/>
@@ -9560,17 +10093,17 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -9594,17 +10127,17 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>44509</v>
+      <c r="A30" s="4">
+        <v>44505</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -9628,17 +10161,17 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>44519</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1.2</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -40006,8 +40539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41006,7 +41539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C178CE-27A1-4290-A377-D8A2015E86E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C483E15-95FF-460F-B4AF-2508C90F7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="CA_D_CURSO" sheetId="4" r:id="rId5"/>
     <sheet name="CA_P_USUARIO" sheetId="5" r:id="rId6"/>
     <sheet name="CA_FAVORITOS" sheetId="6" r:id="rId7"/>
-    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId8"/>
-    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId9"/>
+    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId8"/>
+    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId9"/>
     <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId10"/>
     <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId11"/>
     <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
@@ -3721,176 +3721,50 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>327587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7267575" cy="9791700"/>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>378568</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>111423</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image3.png">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AA7B97-E311-4455-88F3-1D86F9CA48BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2438400" cy="542925"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Shape 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3513300"/>
-          <a:ext cx="2428875" cy="533400"/>
+          <a:off x="6042587" y="1809750"/>
+          <a:ext cx="7194731" cy="8512473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1047750" cy="1657350"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11496675" y="1200150"/>
-          <a:ext cx="1047750" cy="1657350"/>
-          <a:chOff x="4831650" y="2960850"/>
-          <a:chExt cx="1028700" cy="1638300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Shape 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4831650" y="2960850"/>
-            <a:ext cx="1028700" cy="1638300"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -3956,7 +3830,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Registro.</a:t>
+            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3967,11 +3841,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85713</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1190625" cy="390525"/>
+    <xdr:ext cx="1000125" cy="133349"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="3" name="Shape 2">
@@ -3985,10 +3859,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12630150" y="2562225"/>
-          <a:ext cx="1190625" cy="390525"/>
-          <a:chOff x="4760213" y="3594338"/>
-          <a:chExt cx="1171500" cy="371400"/>
+          <a:off x="12820650" y="2562213"/>
+          <a:ext cx="1000125" cy="133349"/>
+          <a:chOff x="4947653" y="3594339"/>
+          <a:chExt cx="984060" cy="126819"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4005,9 +3879,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4760213" y="3594338"/>
-            <a:ext cx="1171500" cy="371400"/>
+          <a:xfrm flipV="1">
+            <a:off x="4947653" y="3594339"/>
+            <a:ext cx="984060" cy="126819"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4092,7 +3966,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Permite ordenar los resultados de acuerdo a criterios especificos como precio, duración etc.</a:t>
+            <a:t>Se mostrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> el total de cursos encontrados al realizar la búsqueda.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4103,11 +3989,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="542925"/>
+    <xdr:ext cx="2466975" cy="676275"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Shape 26">
@@ -4121,8 +4007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150613" y="3513300"/>
-          <a:ext cx="2390775" cy="533400"/>
+          <a:off x="2000249" y="7019925"/>
+          <a:ext cx="2466975" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4165,7 +4051,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Detalle de curso.</a:t>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> mostrará una lista de las 5 últimas búsquedas realizadas, al hacer clic en estas se ejecutará la búsqueda</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4178,9 +4076,9 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="704850"/>
+    <xdr:ext cx="2400300" cy="885825"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Shape 27">
@@ -4194,8 +4092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150613" y="3432338"/>
-          <a:ext cx="2390775" cy="695325"/>
+          <a:off x="1971675" y="5219699"/>
+          <a:ext cx="2400300" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4238,7 +4136,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Permiten filtrar las busquedas de acuerdo a criterios especificos como precio, duración, etc.</a:t>
+            <a:t>Se permitirá filtrar las busquedas de acuerdo a criterios especificos como: Fecha, Mayor a menor precio,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Menor a mayor precio</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4253,7 +4163,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="542925"/>
+    <xdr:ext cx="2400300" cy="1152525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Shape 28">
@@ -4267,8 +4177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150613" y="3513300"/>
-          <a:ext cx="2390775" cy="533400"/>
+          <a:off x="1981200" y="3448050"/>
+          <a:ext cx="2400300" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,7 +4221,41 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Home.</a:t>
+            <a:t>Se mostrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> un cuadro de búsqueda.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic en el botón buscar o presionar la tecla enter, se ejecutará la búsqueda</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4384,7 +4328,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic muestra un menu con todas las categorias.</a:t>
+            <a:t>Se mostrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> el mensaje para una búsqueda efectuada, mencionando el término de búsqueda</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4395,11 +4351,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1352550" cy="152400"/>
+    <xdr:ext cx="990600" cy="419100"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -4413,8 +4369,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12468225" y="3743325"/>
-          <a:ext cx="1352550" cy="152400"/>
+          <a:off x="12830175" y="3448050"/>
+          <a:ext cx="990600" cy="419100"/>
           <a:chOff x="4679250" y="3713325"/>
           <a:chExt cx="1333500" cy="133200"/>
         </a:xfrm>
@@ -4458,11 +4414,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3800475" cy="838200"/>
+    <xdr:ext cx="2352677" cy="1895475"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Shape 2">
@@ -4476,10 +4432,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4381500" y="6457950"/>
-          <a:ext cx="3800475" cy="838200"/>
-          <a:chOff x="3455213" y="3370425"/>
-          <a:chExt cx="3781500" cy="819300"/>
+          <a:off x="4448176" y="5229225"/>
+          <a:ext cx="2352677" cy="1895475"/>
+          <a:chOff x="3521555" y="2169406"/>
+          <a:chExt cx="2340930" cy="1852735"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4491,14 +4447,12 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="18" idx="3"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="3455213" y="3370425"/>
-            <a:ext cx="3781500" cy="819300"/>
+            <a:off x="3521555" y="2169406"/>
+            <a:ext cx="2340930" cy="1852735"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4522,10 +4476,10 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1895475" cy="828675"/>
+    <xdr:ext cx="2219325" cy="1085850"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="6" name="Shape 2">
@@ -4539,8 +4493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4352925" y="4743450"/>
-          <a:ext cx="1895475" cy="828675"/>
+          <a:off x="4352925" y="4486276"/>
+          <a:ext cx="2219325" cy="1085850"/>
           <a:chOff x="4407713" y="3375188"/>
           <a:chExt cx="1876500" cy="809700"/>
         </a:xfrm>
@@ -4555,7 +4509,7 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="9" idx="3"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4584,11 +4538,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2076450" cy="781050"/>
+    <xdr:ext cx="2152649" cy="138113"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -4601,11 +4555,11 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4371975" y="2990850"/>
-          <a:ext cx="2076450" cy="781050"/>
-          <a:chOff x="4317300" y="3399000"/>
-          <a:chExt cx="2057400" cy="762000"/>
+        <a:xfrm flipV="1">
+          <a:off x="4381500" y="3886200"/>
+          <a:ext cx="2152649" cy="138113"/>
+          <a:chOff x="4326365" y="2478247"/>
+          <a:chExt cx="2048336" cy="920753"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4622,9 +4576,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4317300" y="3399000"/>
-            <a:ext cx="2057400" cy="762000"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4326365" y="2478247"/>
+            <a:ext cx="2048336" cy="920753"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4648,10 +4602,10 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1857375" cy="2000250"/>
+    <xdr:ext cx="3400425" cy="2209800"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -4665,8 +4619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="981075"/>
-          <a:ext cx="1857375" cy="2000250"/>
+          <a:off x="5505450" y="1143000"/>
+          <a:ext cx="3400425" cy="2209800"/>
           <a:chOff x="4426763" y="2789400"/>
           <a:chExt cx="1838400" cy="1981200"/>
         </a:xfrm>
@@ -4688,132 +4642,6 @@
           <a:xfrm rot="10800000">
             <a:off x="4426763" y="2789400"/>
             <a:ext cx="1838400" cy="1981200"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1162050" cy="2200275"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8020050" y="733425"/>
-          <a:ext cx="1162050" cy="2200275"/>
-          <a:chOff x="4774500" y="2684475"/>
-          <a:chExt cx="1143000" cy="2190900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="Shape 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="36" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4774500" y="2684475"/>
-            <a:ext cx="1143000" cy="2190900"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1895475"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10229850" y="828675"/>
-          <a:ext cx="571500" cy="1895475"/>
-          <a:chOff x="5069775" y="2841713"/>
-          <a:chExt cx="552300" cy="1876500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="Shape 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="38" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="5069775" y="2841713"/>
-            <a:ext cx="552300" cy="1876500"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4864,6 +4692,65 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>688275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>112875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2750250" cy="763425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D891D3-DEA2-48F8-BE6C-2393DC64CC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13547025" y="8323425"/>
+          <a:ext cx="2750250" cy="763425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="BABABA"/>
           </a:solidFill>
@@ -4894,11 +4781,21 @@
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic usa el algoritmo de web sracping y nos muestra los resultados que coinciden con el valor del campo buscar.</a:t>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> mostrará botones de paginación en caso el número de resultados exceda la cantidad de cursos permitidos por página.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4908,18 +4805,79 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2438400" cy="542925"/>
+    <xdr:ext cx="2324100" cy="438150"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E56EA3A-AF65-4C9E-814D-7E6A05E532D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11258550" y="8639175"/>
+          <a:ext cx="2324100" cy="438150"/>
+          <a:chOff x="4426763" y="2789400"/>
+          <a:chExt cx="1838400" cy="1981200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="Shape 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBC432F-1EF2-4826-B284-029AB352FAF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4426763" y="2789400"/>
+            <a:ext cx="1838400" cy="1981200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>621600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2750250" cy="1392075"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Shape 36">
+        <xdr:cNvPr id="44" name="Shape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ED98AF-CAF4-4FDC-B576-A04124915A39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4927,8 +4885,227 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3513300"/>
-          <a:ext cx="2428875" cy="533400"/>
+          <a:off x="13480350" y="5675475"/>
+          <a:ext cx="2750250" cy="1392075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se mostrará el resumen de cada</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> curso, presentando información básica como:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Precio, Horario y Fecha de Inicio.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Tambien se mostrará una breve descripción</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> prodrá hacer clic en todo el cuadro del curso, lo cual redirigirá a la página de detalle del curso.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="419100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95ACED8E-EB2D-4925-81E5-B9C43509B31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12458700" y="5553075"/>
+          <a:ext cx="990600" cy="419100"/>
+          <a:chOff x="4679250" y="3713325"/>
+          <a:chExt cx="1333500" cy="133200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Shape 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF5F5C1-4EA4-43D7-928F-F24679771E0F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4679250" y="3713325"/>
+            <a:ext cx="1333500" cy="133200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>688275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2695575" cy="542925"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54160C93-7029-4123-91DB-13488D46162C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13547025" y="4656300"/>
+          <a:ext cx="2695575" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4971,7 +5148,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Permite caracteres alfanúmericos y debe ser menor a 50 caracteres.</a:t>
+            <a:t>En</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> caso no se encuentren resultados, se mostrará un mensaje.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4979,45 +5168,101 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Shape 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFDA098-FEAC-4B3F-A3DC-C46034E027C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="3638550"/>
+          <a:ext cx="3495675" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149488</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7296150" cy="9439275"/>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>994</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197210</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image4.png">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56516F1-5610-4C9E-B438-1F73FE533D49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="1673488"/>
+          <a:ext cx="7544794" cy="8734522"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -5083,7 +5328,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Registro.</a:t>
+            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -5093,12 +5338,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2266950" cy="914400"/>
+    <xdr:ext cx="1800225" cy="257175"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -5112,8 +5357,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10429875" y="2400300"/>
-          <a:ext cx="2266950" cy="914400"/>
+          <a:off x="10896599" y="2400300"/>
+          <a:ext cx="1800225" cy="257175"/>
           <a:chOff x="4222050" y="3332475"/>
           <a:chExt cx="2247900" cy="895200"/>
         </a:xfrm>
@@ -5128,7 +5373,7 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="1"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5152,142 +5397,6 @@
         </xdr:spPr>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1104900" cy="1743075"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9296400" y="1428750"/>
-          <a:ext cx="1104900" cy="1743075"/>
-          <a:chOff x="4803075" y="2917913"/>
-          <a:chExt cx="1086000" cy="1724100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="Shape 41">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="5" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4803075" y="2917913"/>
-            <a:ext cx="1086000" cy="1724100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2400300" cy="561975"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Shape 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4150613" y="3503775"/>
-          <a:ext cx="2390775" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
@@ -5419,16 +5528,12 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos redirige a detalle de curso del curso en cuestión.</a:t>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> informará que no se encontró una descripción, en caso esta no este disponible.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -5512,11 +5617,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57212</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3133725" cy="657225"/>
+    <xdr:ext cx="2571750" cy="28575"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -5530,10 +5635,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8582025" y="4067175"/>
-          <a:ext cx="3133725" cy="657225"/>
-          <a:chOff x="3788663" y="3460988"/>
-          <a:chExt cx="3114600" cy="638100"/>
+          <a:off x="9143999" y="4067237"/>
+          <a:ext cx="2571750" cy="28575"/>
+          <a:chOff x="4347208" y="3460989"/>
+          <a:chExt cx="2556055" cy="27743"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -5546,13 +5651,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="8" idx="1"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3788663" y="3460988"/>
-            <a:ext cx="3114600" cy="638100"/>
+          <a:xfrm flipV="1">
+            <a:off x="4347208" y="3460989"/>
+            <a:ext cx="2556055" cy="27743"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5575,11 +5680,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>647701</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161931</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3543300" cy="1047750"/>
+    <xdr:ext cx="3228975" cy="238125"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Shape 2">
@@ -5593,10 +5698,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8191500" y="5172075"/>
-          <a:ext cx="3543300" cy="1047750"/>
-          <a:chOff x="3583875" y="3265650"/>
-          <a:chExt cx="3524100" cy="1028700"/>
+          <a:off x="8505826" y="5172081"/>
+          <a:ext cx="3228975" cy="238125"/>
+          <a:chOff x="3896497" y="3265650"/>
+          <a:chExt cx="3211478" cy="233795"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -5608,77 +5713,12 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="17" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3583875" y="3265650"/>
-            <a:ext cx="3524100" cy="1028700"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1847850" cy="1343025"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10067925" y="8477250"/>
-          <a:ext cx="1847850" cy="1343025"/>
-          <a:chOff x="4431600" y="3118088"/>
-          <a:chExt cx="1828800" cy="1323900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="Shape 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="44" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4431600" y="3118088"/>
-            <a:ext cx="1828800" cy="1323900"/>
+          <a:xfrm flipV="1">
+            <a:off x="3896497" y="3265650"/>
+            <a:ext cx="3211478" cy="233795"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5775,10 +5815,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3667125" cy="657225"/>
+    <xdr:ext cx="3962400" cy="47625"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -5791,9 +5831,9 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3076575" y="5419725"/>
-          <a:ext cx="3667125" cy="657225"/>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="5372100"/>
+          <a:ext cx="3962400" cy="47625"/>
           <a:chOff x="3522038" y="3460988"/>
           <a:chExt cx="3648000" cy="638100"/>
         </a:xfrm>
@@ -5815,6 +5855,67 @@
           <a:xfrm rot="10800000">
             <a:off x="3522038" y="3460988"/>
             <a:ext cx="3648000" cy="638100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4819651" cy="1809750"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797DB285-6E60-4E1B-B810-FBA2880AE261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6991349" y="6477000"/>
+          <a:ext cx="4819651" cy="1809750"/>
+          <a:chOff x="2238653" y="4397212"/>
+          <a:chExt cx="4793535" cy="1776842"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Shape 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF827EF-1F54-4D02-9158-1BB4CE824821}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2238653" y="4397212"/>
+            <a:ext cx="4793535" cy="1776842"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7363,317 +7464,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7286625" cy="4953000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image7.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2686050" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Shape 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4007738" y="3584738"/>
-          <a:ext cx="2676525" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1476375" cy="323850"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4810125" y="2867025"/>
-          <a:ext cx="1476375" cy="323850"/>
-          <a:chOff x="4617263" y="3627600"/>
-          <a:chExt cx="1457400" cy="304800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="72" name="Shape 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4617263" y="3627600"/>
-            <a:ext cx="1457400" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2924175" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Shape 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3888675" y="3584738"/>
-          <a:ext cx="2914650" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3181350" cy="647700"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11191875" y="2190750"/>
-          <a:ext cx="3181350" cy="647700"/>
-          <a:chOff x="3764850" y="3465825"/>
-          <a:chExt cx="3162300" cy="628500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="74" name="Shape 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="44" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3764850" y="3465825"/>
-            <a:ext cx="3162300" cy="628500"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -7963,6 +7753,317 @@
           <a:xfrm rot="10800000" flipH="1">
             <a:off x="4017263" y="3118088"/>
             <a:ext cx="2657400" cy="1323900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7286625" cy="4953000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2686050" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Shape 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4007738" y="3584738"/>
+          <a:ext cx="2676525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476375" cy="323850"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4810125" y="2867025"/>
+          <a:ext cx="1476375" cy="323850"/>
+          <a:chOff x="4617263" y="3627600"/>
+          <a:chExt cx="1457400" cy="304800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="Shape 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="3" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4617263" y="3627600"/>
+            <a:ext cx="1457400" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2924175" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Shape 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3888675" y="3584738"/>
+          <a:ext cx="2914650" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3181350" cy="647700"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11191875" y="2190750"/>
+          <a:ext cx="3181350" cy="647700"/>
+          <a:chOff x="3764850" y="3465825"/>
+          <a:chExt cx="3162300" cy="628500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="74" name="Shape 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="44" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="3764850" y="3465825"/>
+            <a:ext cx="3162300" cy="628500"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -40539,7 +40640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -42539,7 +42640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -43537,8 +43640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44537,8 +44640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46532,1004 +46635,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A21:A1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="9.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
@@ -48527,4 +47632,1002 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A21:A1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="26" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C483E15-95FF-460F-B4AF-2508C90F7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D7540-A1C0-41D0-ABC7-580DF1533756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -26,8 +26,17 @@
     <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId11"/>
     <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7miFo66tI5Krd8N3QFh+myzfHXGpsw=="/>
     </ext>
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Modificación de Historias de Usuario</t>
   </si>
@@ -301,6 +310,18 @@
   <si>
     <t>Product Backlog</t>
   </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>deseo restablecer mi contraseña</t>
+  </si>
+  <si>
+    <t>para poder ingresar al sistema en caso haya olvidado mi contraseña</t>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -542,6 +563,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,9 +1009,9 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2838450" cy="1371600"/>
+    <xdr:ext cx="2838450" cy="1895475"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6">
@@ -995,8 +1025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12430125" y="4191000"/>
-          <a:ext cx="2838450" cy="1371600"/>
+          <a:off x="12430125" y="4190999"/>
+          <a:ext cx="2838450" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1039,8 +1069,72 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc.</a:t>
+            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Longitud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> mínima de 8 caracteres.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1312,9 +1406,9 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28572</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2571751" cy="1038243"/>
+    <xdr:ext cx="2571751" cy="1300173"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Shape 2">
@@ -1328,10 +1422,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9858374" y="3838575"/>
-          <a:ext cx="2571751" cy="1038243"/>
+          <a:off x="9858374" y="3838572"/>
+          <a:ext cx="2571751" cy="1300173"/>
           <a:chOff x="4041075" y="4317263"/>
-          <a:chExt cx="2600071" cy="87969"/>
+          <a:chExt cx="2600071" cy="110162"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1350,7 +1444,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4041075" y="4317263"/>
-            <a:ext cx="2600071" cy="87969"/>
+            <a:ext cx="2600071" cy="110162"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -9142,10 +9236,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9410,7 +9504,7 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -9420,7 +9514,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>69</v>
@@ -9454,7 +9548,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
@@ -9496,29 +9590,27 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7">
         <v>85</v>
       </c>
       <c r="H11" s="6">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -9540,27 +9632,29 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H12" s="6">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -9582,29 +9676,27 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H13" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -9626,27 +9718,29 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H14" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -9668,29 +9762,27 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -9711,28 +9803,30 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>36</v>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="G16" s="7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H16" s="6">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9753,27 +9847,25 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>35</v>
-      </c>
+    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>31</v>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="G17" s="7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H17" s="6">
         <v>8</v>
@@ -9798,27 +9890,29 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="B18" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -9842,19 +9936,19 @@
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7">
         <v>48</v>
@@ -9882,27 +9976,27 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -9924,26 +10018,24 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>15</v>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H21" s="6">
         <v>8</v>
@@ -9968,27 +10060,29 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="B22" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H22" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -10009,30 +10103,28 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
+      <c r="C23" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>6</v>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>5</v>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G23" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H23" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -10053,15 +10145,31 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="24" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6">
+        <v>20</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -10193,18 +10301,12 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -10228,17 +10330,17 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>44505</v>
+      <c r="A30" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="B30" s="3">
-        <v>1.1000000000000001</v>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>1</v>
+      <c r="C30" s="23" t="s">
+        <v>2</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -10263,13 +10365,13 @@
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="B31" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -10295,12 +10397,18 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44519</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -37623,17 +37731,45 @@
       <c r="Y1007" s="2"/>
       <c r="Z1007" s="2"/>
     </row>
+    <row r="1008" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40640,7 +40776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H13" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -43640,8 +43776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D7540-A1C0-41D0-ABC7-580DF1533756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA54CF-03B4-4241-BBA2-C67F6A03056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>Modificación de Historias de Usuario</t>
   </si>
@@ -322,6 +322,9 @@
   <si>
     <t>para poder ingresar al sistema en caso haya olvidado mi contraseña</t>
   </si>
+  <si>
+    <t>A07</t>
+  </si>
 </sst>
 </file>
 
@@ -552,6 +555,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -563,15 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9238,8 +9241,8 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,7 +9507,7 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -9548,7 +9551,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
@@ -9590,7 +9593,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>88</v>
       </c>
@@ -9632,7 +9635,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -9676,7 +9679,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
@@ -9718,7 +9721,7 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -9762,7 +9765,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
@@ -9804,7 +9807,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -9826,7 +9829,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9848,7 +9851,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
@@ -9890,7 +9893,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -9912,7 +9915,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -9934,7 +9937,7 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
@@ -9976,7 +9979,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
@@ -10018,7 +10021,7 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -10060,7 +10063,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -10104,7 +10107,7 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>8</v>
@@ -10168,7 +10171,7 @@
         <v>25</v>
       </c>
       <c r="H24" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -10336,11 +10339,11 @@
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -10370,11 +10373,11 @@
       <c r="B31" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -10404,11 +10407,11 @@
       <c r="B32" s="3">
         <v>1.2</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -37761,6 +37764,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
@@ -37769,7 +37773,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40776,7 +40779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H13" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Angel\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA54CF-03B4-4241-BBA2-C67F6A03056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D7E6D7-033F-4285-BFC8-4CE36E57AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId10"/>
     <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId11"/>
     <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
+    <sheet name="CA_RECUPERARC" sheetId="13" r:id="rId13"/>
+    <sheet name="CA_NUEVAC" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -694,7 +696,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Longitud máxima de 50 caracteres.</a:t>
+            <a:t>Longitud máxima de 50 caracteres.  Solo letra y numeros</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1072,7 +1074,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. </a:t>
+            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. Formato tipo password. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1127,7 +1129,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t> mínima de 8 caracteres.</a:t>
+            <a:t> mínima de 3 caracteres.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -2091,7 +2093,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9239250" y="4514850"/>
+          <a:off x="9312519" y="4598621"/>
           <a:ext cx="2914650" cy="409575"/>
           <a:chOff x="3898200" y="3579975"/>
           <a:chExt cx="2895600" cy="399900"/>
@@ -2154,7 +2156,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9477375" y="3638550"/>
+          <a:off x="9556750" y="3731358"/>
           <a:ext cx="2676525" cy="619125"/>
           <a:chOff x="4017263" y="3480038"/>
           <a:chExt cx="2657400" cy="600000"/>
@@ -2217,7 +2219,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4743450" y="5524500"/>
+          <a:off x="4780085" y="5585069"/>
           <a:ext cx="2228850" cy="1114425"/>
           <a:chOff x="4241100" y="3232388"/>
           <a:chExt cx="2209800" cy="1095300"/>
@@ -2353,7 +2355,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9686925" y="6972300"/>
+          <a:off x="9766300" y="7000387"/>
           <a:ext cx="2571750" cy="247650"/>
           <a:chOff x="4069650" y="3665700"/>
           <a:chExt cx="2552700" cy="228600"/>
@@ -2489,7 +2491,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4733925" y="7229475"/>
+          <a:off x="4770560" y="7248281"/>
           <a:ext cx="2276475" cy="323850"/>
           <a:chOff x="4217213" y="3627600"/>
           <a:chExt cx="2257500" cy="304800"/>
@@ -2552,7 +2554,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4714875" y="9686925"/>
+          <a:off x="4751510" y="9650046"/>
           <a:ext cx="2019300" cy="981075"/>
           <a:chOff x="4345725" y="3298913"/>
           <a:chExt cx="2000400" cy="962100"/>
@@ -2615,7 +2617,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4657725" y="10668000"/>
+          <a:off x="4694360" y="10607919"/>
           <a:ext cx="2333625" cy="685800"/>
           <a:chOff x="4188788" y="3446775"/>
           <a:chExt cx="2314500" cy="666600"/>
@@ -2678,7 +2680,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4267200" y="3876675"/>
+          <a:off x="4297729" y="3974367"/>
           <a:ext cx="2762250" cy="1809750"/>
           <a:chOff x="3974400" y="2879813"/>
           <a:chExt cx="2743200" cy="1800300"/>
@@ -2971,6 +2973,948 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176141</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFF541B-0588-4858-A872-8CA735B51603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5042647" y="1274669"/>
+          <a:ext cx="7740112" cy="4788037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>223168</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB5AF7E-DC23-4DEE-9796-7EC5E1E24C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="2185147"/>
+          <a:ext cx="2744492" cy="209873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>La</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> entrada debe tener el formato email .</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>456327</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE72FCF-A7E5-46C3-8757-A5160A2F27E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="2913529"/>
+          <a:ext cx="4658533" cy="1026119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> hacer clic se debe validar que la entrada sea un correo registrado, una vez verificado se manda un enlace al correo, desde ese enlace se podrá acceder a la ventana de nueva contraseña, si es correcto debe aparecer un mensaje que diga "correo enviado" y redirigir a la ventana login, en caso contrario "correo incorrecto".</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143397</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7CA108-CA7F-4C05-9EEA-408E82B160A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="4370294"/>
+          <a:ext cx="1824279" cy="258305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Redirige</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> la ventana de login</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>602316</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711C1652-B53E-48CD-BA63-C761B2B2B430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9847169" y="4499447"/>
+          <a:ext cx="4440331" cy="295105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B42BFF-3CC9-4989-BAAE-AF68B4B78E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10029265" y="3426589"/>
+          <a:ext cx="4258235" cy="859661"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62F4C22-C34F-40DC-AE56-79BC4CB1E18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10365441" y="2290084"/>
+          <a:ext cx="3922059" cy="1464838"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78288</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307462</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BD6349-31D7-46FA-98E5-F81CE1725752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4253630" y="913356"/>
+          <a:ext cx="7744791" cy="4776806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>287055</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456679</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745F76ED-BE21-459C-A4A7-7D0003A6A2E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9472808" y="3040172"/>
+          <a:ext cx="3509898" cy="378392"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365342</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213CA6E9-DD26-457D-8FBD-F6C620B3B8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8768218" y="4008814"/>
+          <a:ext cx="4123151" cy="66218"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260959</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>378391</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F096DF-E024-48B4-93B0-01A9582D7E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9446712" y="1801172"/>
+          <a:ext cx="3457706" cy="1056328"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>391439</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CuadroTexto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6914C7-F461-4920-8A1E-E54954212528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12917466" y="1448322"/>
+          <a:ext cx="3023152" cy="800652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Longitud máxima de 20 caracteres y minima de 3, ademas  no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. Formato tipo password.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456679</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139557</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CuadroTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC5934F-4276-4520-8F71-63055D61F92C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12982706" y="2466062"/>
+          <a:ext cx="3023152" cy="1148219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Longitud máxima de 20 caracteres y minima de 3 no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. Formato tipo password. Debe coincidir con la anterior entrada. En caso no coincidan debe mostrarse un mensaje que lo indique</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365342</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>102886</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020C909C-94AA-41D2-BAB2-CC988CFAA17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12891369" y="3757808"/>
+          <a:ext cx="3077818" cy="634447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> cambia y guarda la contraseña en la BD, debe aparecer un mensaje que diga "Nueva contraseña guardada" luego redirigir a la ventana login.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3211,7 +4155,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8296275" y="990600"/>
+          <a:off x="8332157" y="1016696"/>
           <a:ext cx="3076575" cy="1600200"/>
           <a:chOff x="3817238" y="2984738"/>
           <a:chExt cx="3057600" cy="1590600"/>
@@ -3331,6 +4275,29 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Formato tipo password.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -3406,7 +4373,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8343900" y="2571750"/>
+          <a:off x="8379782" y="2639599"/>
           <a:ext cx="2924175" cy="514350"/>
           <a:chOff x="3893438" y="3532350"/>
           <a:chExt cx="2905200" cy="495300"/>
@@ -3641,7 +4608,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7820026" y="3705393"/>
+          <a:off x="7852646" y="3804557"/>
           <a:ext cx="3581398" cy="1738157"/>
           <a:chOff x="3788663" y="4143751"/>
           <a:chExt cx="3152698" cy="28270"/>
@@ -3704,7 +4671,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="6457949" y="4286418"/>
+          <a:off x="6487307" y="4382190"/>
           <a:ext cx="1447801" cy="1781007"/>
           <a:chOff x="3788663" y="4143751"/>
           <a:chExt cx="3152698" cy="28270"/>
@@ -3956,7 +4923,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12820650" y="2562213"/>
+          <a:off x="12820650" y="2635051"/>
           <a:ext cx="1000125" cy="133349"/>
           <a:chOff x="4947653" y="3594339"/>
           <a:chExt cx="984060" cy="126819"/>
@@ -4448,11 +5415,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>462243</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182096</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="990600" cy="419100"/>
+    <xdr:ext cx="1214157" cy="452157"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -4466,8 +5433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12830175" y="3448050"/>
-          <a:ext cx="990600" cy="419100"/>
+          <a:off x="12606618" y="3515846"/>
+          <a:ext cx="1214157" cy="452157"/>
           <a:chOff x="4679250" y="3713325"/>
           <a:chExt cx="1333500" cy="133200"/>
         </a:xfrm>
@@ -4529,7 +5496,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4448176" y="5229225"/>
+          <a:off x="4448176" y="5313829"/>
           <a:ext cx="2352677" cy="1895475"/>
           <a:chOff x="3521555" y="2169406"/>
           <a:chExt cx="2340930" cy="1852735"/>
@@ -4590,7 +5557,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4352925" y="4486276"/>
+          <a:off x="4352925" y="4586569"/>
           <a:ext cx="2219325" cy="1085850"/>
           <a:chOff x="4407713" y="3375188"/>
           <a:chExt cx="1876500" cy="809700"/>
@@ -4653,7 +5620,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipV="1">
-          <a:off x="4381500" y="3886200"/>
+          <a:off x="4381500" y="3998259"/>
           <a:ext cx="2152649" cy="138113"/>
           <a:chOff x="4326365" y="2478247"/>
           <a:chExt cx="2048336" cy="920753"/>
@@ -4716,7 +5683,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="1143000"/>
+          <a:off x="5505450" y="1176618"/>
           <a:ext cx="3400425" cy="2209800"/>
           <a:chOff x="4426763" y="2789400"/>
           <a:chExt cx="1838400" cy="1981200"/>
@@ -4921,7 +5888,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11258550" y="8639175"/>
+          <a:off x="11258550" y="8657104"/>
           <a:ext cx="2324100" cy="438150"/>
           <a:chOff x="4426763" y="2789400"/>
           <a:chExt cx="1838400" cy="1981200"/>
@@ -5140,7 +6107,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12458700" y="5553075"/>
+          <a:off x="12458700" y="5633757"/>
           <a:ext cx="990600" cy="419100"/>
           <a:chOff x="4679250" y="3713325"/>
           <a:chExt cx="1333500" cy="133200"/>
@@ -6037,40 +7004,50 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628187</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43294</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7296150" cy="9629775"/>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166711</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>77947</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image5.png">
+        <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3126AA4E-6F30-46A8-892F-B06C5847A657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4931246" y="995794"/>
+          <a:ext cx="8861818" cy="10556977"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -6160,7 +7137,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>admitir letras.</a:t>
+            <a:t>admitir letras y numeros.</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -6201,7 +7178,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12849225" y="2857500"/>
+          <a:off x="12896850" y="2857500"/>
           <a:ext cx="1885950" cy="1323975"/>
           <a:chOff x="4412550" y="3127463"/>
           <a:chExt cx="1866900" cy="1305000"/>
@@ -6248,9 +7225,9 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="542925"/>
+    <xdr:ext cx="2647950" cy="336176"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Shape 53">
@@ -6264,8 +7241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4026788" y="3513300"/>
-          <a:ext cx="2638425" cy="533400"/>
+          <a:off x="14781679" y="3429001"/>
+          <a:ext cx="2647950" cy="336176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6299,7 +7276,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="es-MX" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6308,22 +7285,10 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Longitud máxima de 50 caracteres y solo debe</a:t>
+            <a:t>No</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6332,7 +7297,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>admitir letras.</a:t>
+            <a:t> se puede editar el campo email.</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -6417,7 +7382,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Longitud máxima de 200 caracteres.</a:t>
+            <a:t>Longitud máxima de 240 caracteres.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -6502,7 +7467,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic se despliega el administrador de archivos y solo se aceptan archivos jpg o png.</a:t>
+            <a:t>Al hacer clic se despliega el administrador de archivos y solo se aceptan archivos jpg o png. tamañp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> máximo 2MB</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -6604,7 +7581,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12830175" y="3676650"/>
+          <a:off x="12877800" y="3676650"/>
           <a:ext cx="1914525" cy="933450"/>
           <a:chOff x="4398263" y="3322800"/>
           <a:chExt cx="1895400" cy="914400"/>
@@ -6667,7 +7644,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12849225" y="4629150"/>
+          <a:off x="12896850" y="4635874"/>
           <a:ext cx="1924050" cy="819150"/>
           <a:chOff x="4393500" y="3379950"/>
           <a:chExt cx="1905000" cy="800100"/>
@@ -6730,7 +7707,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12858750" y="5838825"/>
+          <a:off x="12906375" y="5855634"/>
           <a:ext cx="1962150" cy="809625"/>
           <a:chOff x="4374450" y="3379950"/>
           <a:chExt cx="1943100" cy="800100"/>
@@ -6793,7 +7770,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11658600" y="6924675"/>
+          <a:off x="11703424" y="6949888"/>
           <a:ext cx="3171825" cy="381000"/>
           <a:chOff x="3769613" y="3598875"/>
           <a:chExt cx="3152700" cy="362100"/>
@@ -6983,69 +7960,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="809625" cy="1905000"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12030075" y="571500"/>
-          <a:ext cx="809625" cy="1905000"/>
-          <a:chOff x="4950713" y="2836875"/>
-          <a:chExt cx="790500" cy="1886100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="63" name="Shape 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="12" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4950713" y="2836875"/>
-            <a:ext cx="790500" cy="1886100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -7065,7 +7979,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12858750" y="1209675"/>
+          <a:off x="12909176" y="1209675"/>
           <a:ext cx="1428750" cy="1171575"/>
           <a:chOff x="4636388" y="3203663"/>
           <a:chExt cx="1419300" cy="1152600"/>
@@ -7088,69 +8002,6 @@
           <a:xfrm rot="10800000" flipH="1">
             <a:off x="4636388" y="3203663"/>
             <a:ext cx="1419300" cy="1152600"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="285750" cy="1619250"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8372475" y="800100"/>
-          <a:ext cx="285750" cy="1619250"/>
-          <a:chOff x="5212650" y="2979900"/>
-          <a:chExt cx="266700" cy="1600200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="65" name="Shape 65">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="66" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="5212650" y="2979900"/>
-            <a:ext cx="266700" cy="1600200"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7241,6 +8092,130 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1039091" cy="1376218"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="7258356" y="800100"/>
+          <a:ext cx="1039091" cy="1376218"/>
+          <a:chOff x="5212650" y="2979900"/>
+          <a:chExt cx="266700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="Shape 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="66" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5212650" y="2979900"/>
+            <a:ext cx="266700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>216579</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1039091" cy="1376218"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DF5D9D-1C79-46E4-92A5-DCF38E933F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11691403" y="638736"/>
+          <a:ext cx="1039091" cy="1376218"/>
+          <a:chOff x="5212650" y="2979900"/>
+          <a:chExt cx="266700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Shape 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A1BEE5-5B85-4E5D-B0D6-BBFCB1F78ECC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5212650" y="2979900"/>
+            <a:ext cx="266700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -7376,7 +8351,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12230100" y="3276600"/>
+          <a:off x="12360685" y="3172132"/>
           <a:ext cx="2038350" cy="1019175"/>
           <a:chOff x="4336350" y="3279863"/>
           <a:chExt cx="2019300" cy="1000200"/>
@@ -7512,7 +8487,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4286250" y="3876675"/>
+          <a:off x="4332339" y="3753772"/>
           <a:ext cx="1876425" cy="942975"/>
           <a:chOff x="4417388" y="3317963"/>
           <a:chExt cx="1857300" cy="924000"/>
@@ -8386,7 +9361,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12725400" y="2590800"/>
+          <a:off x="12780854" y="2658649"/>
           <a:ext cx="2457450" cy="1200150"/>
           <a:chOff x="4126800" y="3184613"/>
           <a:chExt cx="2438400" cy="1190700"/>
@@ -8522,7 +9497,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10601325" y="733425"/>
+          <a:off x="10646993" y="749083"/>
           <a:ext cx="1924050" cy="1790700"/>
           <a:chOff x="4393500" y="2894025"/>
           <a:chExt cx="1905000" cy="1771800"/>
@@ -8658,7 +9633,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8334375" y="723900"/>
+          <a:off x="8370257" y="739558"/>
           <a:ext cx="1152525" cy="1857375"/>
           <a:chOff x="4779338" y="2860763"/>
           <a:chExt cx="1133400" cy="1838400"/>
@@ -8794,7 +9769,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4829175" y="723900"/>
+          <a:off x="4848747" y="739558"/>
           <a:ext cx="3362325" cy="1866900"/>
           <a:chOff x="3674438" y="2856225"/>
           <a:chExt cx="3343200" cy="1847700"/>
@@ -8857,7 +9832,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12353925" y="4019550"/>
+          <a:off x="12409379" y="4119628"/>
           <a:ext cx="2857500" cy="1333500"/>
           <a:chOff x="3922013" y="3122925"/>
           <a:chExt cx="2847900" cy="1314300"/>
@@ -8920,7 +9895,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12611100" y="6067425"/>
+          <a:off x="12666554" y="6124445"/>
           <a:ext cx="2524125" cy="1200150"/>
           <a:chOff x="4093463" y="3189450"/>
           <a:chExt cx="2505000" cy="1181100"/>
@@ -9241,7 +10216,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -37783,7 +38758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -38783,7 +39758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B24" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39781,7 +40758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="E12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40775,12 +41752,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC7684-AD98-4304-9F26-94626741FBB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EA8CE4-EE99-48AA-A8E5-DCC306AF2EAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41779,8 +42786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" topLeftCell="D5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42779,8 +43786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43779,7 +44786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -44779,8 +45786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45779,7 +46786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -46777,7 +47786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B3" workbookViewId="0">
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>

--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Angel\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D7E6D7-033F-4285-BFC8-4CE36E57AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D79AD-547D-4651-A851-A2F003CA4E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="CA_D_CURSO" sheetId="4" r:id="rId5"/>
     <sheet name="CA_P_USUARIO" sheetId="5" r:id="rId6"/>
     <sheet name="CA_FAVORITOS" sheetId="6" r:id="rId7"/>
-    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId8"/>
-    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId9"/>
-    <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId10"/>
-    <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId11"/>
+    <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId8"/>
+    <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId9"/>
+    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId10"/>
+    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId11"/>
     <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
     <sheet name="CA_RECUPERARC" sheetId="13" r:id="rId13"/>
     <sheet name="CA_NUEVAC" sheetId="14" r:id="rId14"/>
@@ -1675,18 +1675,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5334000" cy="10391775"/>
+    <xdr:ext cx="7286625" cy="4953000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image10.png">
+        <xdr:cNvPr id="4" name="image7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,18 +1709,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2638425" cy="400050"/>
+    <xdr:ext cx="2686050" cy="400050"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Shape 91">
+        <xdr:cNvPr id="71" name="Shape 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,8 +1728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="3579975"/>
-          <a:ext cx="2628900" cy="400050"/>
+          <a:off x="4007738" y="3584738"/>
+          <a:ext cx="2676525" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,7 +1772,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos lleva a la página del insituto.</a:t>
+            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -1782,18 +1782,81 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3248025" cy="314325"/>
+    <xdr:ext cx="1476375" cy="323850"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4810125" y="2867025"/>
+          <a:ext cx="1476375" cy="323850"/>
+          <a:chOff x="4617263" y="3627600"/>
+          <a:chExt cx="1457400" cy="304800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="Shape 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="3" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4617263" y="3627600"/>
+            <a:ext cx="1457400" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2924175" cy="400050"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Shape 92">
+        <xdr:cNvPr id="73" name="Shape 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,8 +1864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3726750" y="3627600"/>
-          <a:ext cx="3238500" cy="304800"/>
+          <a:off x="3888675" y="3584738"/>
+          <a:ext cx="2914650" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1908,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Caracteres akfanúmericos menor a 100 caracteres.</a:t>
+            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -1855,237 +1918,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3248025" cy="381000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Shape 93">
+    <xdr:ext cx="3181350" cy="647700"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3726750" y="3594263"/>
-          <a:ext cx="3238500" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se muestran algunos cursos que dicta la institución.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3248025" cy="552450"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Shape 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3726750" y="3508538"/>
-          <a:ext cx="3238500" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos lleva a la pantalla de detalle de curso del respectivo curso.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2762250" cy="447675"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Shape 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3969638" y="3560925"/>
-          <a:ext cx="2752725" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede calificar al insituto de 1 a 5 estrellas.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2914650" cy="409575"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,29 +1937,29 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9312519" y="4598621"/>
-          <a:ext cx="2914650" cy="409575"/>
-          <a:chOff x="3898200" y="3579975"/>
-          <a:chExt cx="2895600" cy="399900"/>
+          <a:off x="11191875" y="2190750"/>
+          <a:ext cx="3181350" cy="647700"/>
+          <a:chOff x="3764850" y="3465825"/>
+          <a:chExt cx="3162300" cy="628500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="96" name="Shape 96">
+          <xdr:cNvPr id="74" name="Shape 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000060000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="1"/>
+            <a:endCxn id="44" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3898200" y="3579975"/>
-            <a:ext cx="2895600" cy="399900"/>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="3764850" y="3465825"/>
+            <a:ext cx="3162300" cy="628500"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2133,666 +1977,6 @@
         </xdr:spPr>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2676525" cy="619125"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9556750" y="3731358"/>
-          <a:ext cx="2676525" cy="619125"/>
-          <a:chOff x="4017263" y="3480038"/>
-          <a:chExt cx="2657400" cy="600000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="97" name="Shape 97">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000061000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="5" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4017263" y="3480038"/>
-            <a:ext cx="2657400" cy="600000"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2228850" cy="1114425"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4780085" y="5585069"/>
-          <a:ext cx="2228850" cy="1114425"/>
-          <a:chOff x="4241100" y="3232388"/>
-          <a:chExt cx="2209800" cy="1095300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="98" name="Shape 98">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000062000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="22" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4241100" y="3232388"/>
-            <a:ext cx="2209800" cy="1095300"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3000375" cy="571500"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Shape 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000063000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3850575" y="3499013"/>
-          <a:ext cx="2990850" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Guarda el comentario y lo muestra junto con su calificación y el nombre de usuario.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2571750" cy="247650"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9766300" y="7000387"/>
-          <a:ext cx="2571750" cy="247650"/>
-          <a:chOff x="4069650" y="3665700"/>
-          <a:chExt cx="2552700" cy="228600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="100" name="Shape 100">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000064000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="48" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4069650" y="3665700"/>
-            <a:ext cx="2552700" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3248025" cy="295275"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Shape 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3726750" y="3637125"/>
-          <a:ext cx="3238500" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se muetran los 3 primeros comentarios.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2276475" cy="323850"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4770560" y="7248281"/>
-          <a:ext cx="2276475" cy="323850"/>
-          <a:chOff x="4217213" y="3627600"/>
-          <a:chExt cx="2257500" cy="304800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="102" name="Shape 102">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000066000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="11" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4217213" y="3627600"/>
-            <a:ext cx="2257500" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2019300" cy="981075"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4751510" y="9650046"/>
-          <a:ext cx="2019300" cy="981075"/>
-          <a:chOff x="4345725" y="3298913"/>
-          <a:chExt cx="2000400" cy="962100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="103" name="Shape 103">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000067000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="4" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4345725" y="3298913"/>
-            <a:ext cx="2000400" cy="962100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2333625" cy="685800"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4694360" y="10607919"/>
-          <a:ext cx="2333625" cy="685800"/>
-          <a:chOff x="4188788" y="3446775"/>
-          <a:chExt cx="2314500" cy="666600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="104" name="Shape 104">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000068000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="54" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4188788" y="3446775"/>
-            <a:ext cx="2314500" cy="666600"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2762250" cy="1809750"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4297729" y="3974367"/>
-          <a:ext cx="2762250" cy="1809750"/>
-          <a:chOff x="3974400" y="2879813"/>
-          <a:chExt cx="2743200" cy="1800300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="105" name="Shape 105">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000069000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="106" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3974400" y="2879813"/>
-            <a:ext cx="2743200" cy="1800300"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3248025" cy="504825"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Shape 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3726750" y="3532350"/>
-          <a:ext cx="3238500" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se muestra el promedio de las calificaciones que tiene la institución.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -8534,666 +7718,50 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169624</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7315200" cy="4972050"/>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>268644</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1111</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image8.png">
+        <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CF3324-3F2E-4672-81AD-87D57B78B0EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="619125"/>
-          <a:ext cx="7315200" cy="4972050"/>
+          <a:off x="6393495" y="1735377"/>
+          <a:ext cx="7510252" cy="7855974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2867025" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Shape 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3917250" y="3579975"/>
-          <a:ext cx="2857500" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a las instituciones.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3019425" cy="685800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Shape 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3836288" y="3441863"/>
-          <a:ext cx="3019425" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede ver a todas las instituciones que se muestran por defecto en la pantalla de instituciones.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1504950" cy="38100"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3295650" y="1943100"/>
-          <a:ext cx="1504950" cy="38100"/>
-          <a:chOff x="4593675" y="3770475"/>
-          <a:chExt cx="1504800" cy="18900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="77" name="Shape 77">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="22" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4593675" y="3770475"/>
-            <a:ext cx="1504800" cy="18900"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2676525" cy="1343025"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10201275" y="962025"/>
-          <a:ext cx="2676525" cy="1343025"/>
-          <a:chOff x="4017263" y="3118088"/>
-          <a:chExt cx="2657400" cy="1323900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="78" name="Shape 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4017263" y="3118088"/>
-            <a:ext cx="2657400" cy="1323900"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7286625" cy="4953000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image7.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2686050" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Shape 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4007738" y="3584738"/>
-          <a:ext cx="2676525" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1476375" cy="323850"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4810125" y="2867025"/>
-          <a:ext cx="1476375" cy="323850"/>
-          <a:chOff x="4617263" y="3627600"/>
-          <a:chExt cx="1457400" cy="304800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="72" name="Shape 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4617263" y="3627600"/>
-            <a:ext cx="1457400" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2924175" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Shape 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3888675" y="3584738"/>
-          <a:ext cx="2914650" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3181350" cy="647700"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11191875" y="2190750"/>
-          <a:ext cx="3181350" cy="647700"/>
-          <a:chOff x="3764850" y="3465825"/>
-          <a:chExt cx="3162300" cy="628500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="74" name="Shape 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="44" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3764850" y="3465825"/>
-            <a:ext cx="3162300" cy="628500"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7296150" cy="8543925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image9.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -9677,148 +8245,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>469726</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2438400" cy="542925"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Shape 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000056000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4131563" y="3513300"/>
-          <a:ext cx="2428875" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic muestra los institutos mejor calificados.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3362325" cy="1866900"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4848747" y="739558"/>
-          <a:ext cx="3362325" cy="1866900"/>
-          <a:chOff x="3674438" y="2856225"/>
-          <a:chExt cx="3343200" cy="1847700"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="Shape 87">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000057000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="10" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3674438" y="2856225"/>
-            <a:ext cx="3343200" cy="1847700"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2857500" cy="1333500"/>
+    <xdr:ext cx="2597324" cy="1295269"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="6" name="Shape 2">
@@ -9832,10 +8264,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12409379" y="4119628"/>
-          <a:ext cx="2857500" cy="1333500"/>
-          <a:chOff x="3922013" y="3122925"/>
-          <a:chExt cx="2847900" cy="1314300"/>
+          <a:off x="12669555" y="4119629"/>
+          <a:ext cx="2597324" cy="1295269"/>
+          <a:chOff x="4181315" y="3122925"/>
+          <a:chExt cx="2588598" cy="1276619"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -9852,72 +8284,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3922013" y="3122925"/>
-            <a:ext cx="2847900" cy="1314300"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2524125" cy="1200150"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12666554" y="6124445"/>
-          <a:ext cx="2524125" cy="1200150"/>
-          <a:chOff x="4093463" y="3189450"/>
-          <a:chExt cx="2505000" cy="1181100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="Shape 89">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000059000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="90" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4093463" y="3189450"/>
-            <a:ext cx="2505000" cy="1181100"/>
+          <a:xfrm flipV="1">
+            <a:off x="4181315" y="3122925"/>
+            <a:ext cx="2588598" cy="1276619"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -10002,12 +8371,1464 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Se muestra la calificación que tiene el instituto.</a:t>
+            <a:t>Se muestra el</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> logo asociado a la institución.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635173</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>70972</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2359200" cy="185805"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048D4DF6-4D47-4F95-90E6-7A882BB381A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12835002" y="6138267"/>
+          <a:ext cx="2359200" cy="185805"/>
+          <a:chOff x="4181315" y="4216415"/>
+          <a:chExt cx="2351274" cy="183130"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Shape 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F16898E-B268-41E6-99AA-D175B143E1E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="90" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4181315" y="4216415"/>
+            <a:ext cx="2351274" cy="183130"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>248298</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>87889</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2924175" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Shape 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6070A73C-69E8-4F4F-B2A8-6D0C2B182568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13165764" y="7720937"/>
+          <a:ext cx="2924175" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se muestra paginación</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> en caso se presenten mas de 12 instituciones.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396134</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174297</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2005074" cy="113599"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88627F86-C7C8-41C4-85E6-3AA24CEFFE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11160689" y="7807345"/>
+          <a:ext cx="2005074" cy="113599"/>
+          <a:chOff x="4181315" y="4399546"/>
+          <a:chExt cx="1998338" cy="111964"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Shape 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C236D4C9-F443-4EF5-97B5-D0A73A1FF1D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="26" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4181315" y="4399546"/>
+            <a:ext cx="1998338" cy="111964"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495404</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6851</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>105516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC104EA6-1C75-447D-BB76-32CC80FB0E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4818289" y="1135671"/>
+          <a:ext cx="8877697" cy="12451383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>464039</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2638425" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Shape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13432693" y="4290646"/>
+          <a:ext cx="2638425" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic nos lleva a la página del insituto.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3248025" cy="314325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Shape 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3726750" y="3627600"/>
+          <a:ext cx="3238500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se muestra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> el logo asociado a la institución.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>633779</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3248025" cy="381000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Shape 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1354260" y="8704385"/>
+          <a:ext cx="3248025" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se muestran los cursos disponibles de la institución.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3248025" cy="552450"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Shape 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3726750" y="3508538"/>
+          <a:ext cx="3238500" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic nos lleva a la pantalla de detalle de curso del respectivo curso.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434730</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129198</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914650" cy="409575"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10521461" y="4036890"/>
+          <a:ext cx="2914650" cy="409575"/>
+          <a:chOff x="3898200" y="3579975"/>
+          <a:chExt cx="2895600" cy="399900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="Shape 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3898200" y="3579975"/>
+            <a:ext cx="2895600" cy="399900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85482</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1203569" cy="810358"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4780085" y="4774713"/>
+          <a:ext cx="1203569" cy="810358"/>
+          <a:chOff x="4241100" y="2435938"/>
+          <a:chExt cx="1193282" cy="796451"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="98" name="Shape 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4241100" y="2435938"/>
+            <a:ext cx="1193282" cy="796451"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3248025" cy="790819"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Shape 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1507637" y="7110046"/>
+          <a:ext cx="3248025" cy="790819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se muestra la descripción</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> de la institución, en caso no este disponible la descripción se debe informar mediante un mensaje.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2276475" cy="323850"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4770560" y="7248282"/>
+          <a:ext cx="2276475" cy="323850"/>
+          <a:chOff x="4217213" y="3627600"/>
+          <a:chExt cx="2257500" cy="304800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="102" name="Shape 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="11" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4217213" y="3627600"/>
+            <a:ext cx="2257500" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279399</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158745</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795215" cy="139212"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4602284" y="8755668"/>
+          <a:ext cx="795215" cy="139212"/>
+          <a:chOff x="4197895" y="2421825"/>
+          <a:chExt cx="787772" cy="136519"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="103" name="Shape 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="93" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4197895" y="2421825"/>
+            <a:ext cx="787772" cy="136519"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85482</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1252658" cy="167054"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4694361" y="10440867"/>
+          <a:ext cx="1252658" cy="167054"/>
+          <a:chOff x="4188789" y="3284398"/>
+          <a:chExt cx="1242392" cy="162377"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="104" name="Shape 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4188789" y="3284398"/>
+            <a:ext cx="1242392" cy="162377"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>451825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>183171</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2561250" cy="1145200"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10538556" y="4481633"/>
+          <a:ext cx="2561250" cy="1145200"/>
+          <a:chOff x="15556728" y="3712422"/>
+          <a:chExt cx="2543588" cy="1139221"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="105" name="Shape 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="106" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15556728" y="3712422"/>
+            <a:ext cx="2543588" cy="1139221"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>131152</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116742</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3248025" cy="860181"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Shape 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13099806" y="5196742"/>
+          <a:ext cx="3248025" cy="860181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se muestra las</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> redes sociales disponibles de la institución.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> hacer clic en cada botón se abrira la página correspondiente a cada red social.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7315200" cy="4972050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="619125"/>
+          <a:ext cx="7315200" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2867025" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Shape 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917250" y="3579975"/>
+          <a:ext cx="2857500" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se puede habilitar o deshabilitar a las instituciones.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3019425" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3836288" y="3441863"/>
+          <a:ext cx="3019425" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se puede ver a todas las instituciones que se muestran por defecto en la pantalla de instituciones.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1504950" cy="38100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3295650" y="1943100"/>
+          <a:ext cx="1504950" cy="38100"/>
+          <a:chOff x="4593675" y="3770475"/>
+          <a:chExt cx="1504800" cy="18900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="77" name="Shape 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="22" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4593675" y="3770475"/>
+            <a:ext cx="1504800" cy="18900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2676525" cy="1343025"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10201275" y="962025"/>
+          <a:ext cx="2676525" cy="1343025"/>
+          <a:chOff x="4017263" y="3118088"/>
+          <a:chExt cx="2657400" cy="1323900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="Shape 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="3" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="4017263" y="3118088"/>
+            <a:ext cx="2657400" cy="1323900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -38755,16 +38576,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="9.375" customWidth="1"/>
+    <col min="1" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39755,12 +39576,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B24" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -43786,7 +43605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
@@ -44786,7 +44605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -45786,7 +45605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
@@ -46786,7 +46605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -47783,11 +47602,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="27" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A21:A1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48780,1002 +49599,4 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A21:A1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="9.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D79AD-547D-4651-A851-A2F003CA4E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332CFEF-95F7-4511-B091-B2E05459468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -3971,23 +3971,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327587</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98052</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>378568</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>111423</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28014</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AA7B97-E311-4455-88F3-1D86F9CA48BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5426C42C-3011-4629-A2DC-969DFD8126A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,8 +4003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6042587" y="1809750"/>
-          <a:ext cx="7194731" cy="8512473"/>
+          <a:off x="5098677" y="756398"/>
+          <a:ext cx="8502462" cy="10059720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4016,9 +4016,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>620806</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75079</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2438400" cy="542925"/>
     <xdr:sp macro="" textlink="">
@@ -4034,8 +4034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3513300"/>
-          <a:ext cx="2428875" cy="533400"/>
+          <a:off x="14193931" y="1643903"/>
+          <a:ext cx="2438400" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4088,12 +4088,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85713</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108864</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1000125" cy="133349"/>
+    <xdr:ext cx="1122909" cy="32878"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="3" name="Shape 2">
@@ -4107,10 +4107,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12820650" y="2635051"/>
-          <a:ext cx="1000125" cy="133349"/>
-          <a:chOff x="4947653" y="3594339"/>
-          <a:chExt cx="984060" cy="126819"/>
+          <a:off x="13212535" y="1823364"/>
+          <a:ext cx="1122909" cy="32878"/>
+          <a:chOff x="4826841" y="3563072"/>
+          <a:chExt cx="1104872" cy="31268"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4127,9 +4127,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="4947653" y="3594339"/>
-            <a:ext cx="984060" cy="126819"/>
+          <a:xfrm>
+            <a:off x="4826841" y="3563072"/>
+            <a:ext cx="1104872" cy="31268"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4152,9 +4152,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2695575" cy="542925"/>
     <xdr:sp macro="" textlink="">
@@ -4170,8 +4170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4002975" y="3513300"/>
-          <a:ext cx="2686050" cy="533400"/>
+          <a:off x="14094278" y="2748643"/>
+          <a:ext cx="2695575" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4513,10 +4513,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>583266</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2438400" cy="561975"/>
     <xdr:sp macro="" textlink="">
@@ -4532,8 +4532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3503775"/>
-          <a:ext cx="2428875" cy="552450"/>
+          <a:off x="2012016" y="1212476"/>
+          <a:ext cx="2438400" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4599,11 +4599,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>462243</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182096</xdr:rowOff>
+      <xdr:colOff>711253</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100473</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214157" cy="452157"/>
+    <xdr:ext cx="1122988" cy="252655"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -4617,10 +4617,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12606618" y="3515846"/>
-          <a:ext cx="1214157" cy="452157"/>
+          <a:off x="12971289" y="2767473"/>
+          <a:ext cx="1122988" cy="252655"/>
           <a:chOff x="4679250" y="3713325"/>
-          <a:chExt cx="1333500" cy="133200"/>
+          <a:chExt cx="1233370" cy="74429"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4633,13 +4633,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="17" idx="1"/>
+            <a:endCxn id="25" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4679250" y="3713325"/>
-            <a:ext cx="1333500" cy="133200"/>
+            <a:ext cx="1233370" cy="74429"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4662,11 +4662,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>149681</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2352677" cy="1895475"/>
+    <xdr:ext cx="1415142" cy="2517321"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Shape 2">
@@ -4680,10 +4680,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4448176" y="5313829"/>
-          <a:ext cx="2352677" cy="1895475"/>
-          <a:chOff x="3521555" y="2169406"/>
-          <a:chExt cx="2340930" cy="1852735"/>
+          <a:off x="4476752" y="4640037"/>
+          <a:ext cx="1415142" cy="2517321"/>
+          <a:chOff x="3509370" y="1565572"/>
+          <a:chExt cx="1408076" cy="2460559"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4699,8 +4699,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="3521555" y="2169406"/>
-            <a:ext cx="2340930" cy="1852735"/>
+            <a:off x="3509370" y="1565572"/>
+            <a:ext cx="1408076" cy="2460559"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4723,11 +4723,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>58509</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2219325" cy="1085850"/>
+    <xdr:ext cx="1329417" cy="1622651"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="6" name="Shape 2">
@@ -4741,10 +4741,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4352925" y="4586569"/>
-          <a:ext cx="2219325" cy="1085850"/>
-          <a:chOff x="4407713" y="3375188"/>
-          <a:chExt cx="1876500" cy="809700"/>
+          <a:off x="4385580" y="4068537"/>
+          <a:ext cx="1329417" cy="1622651"/>
+          <a:chOff x="4400811" y="3054554"/>
+          <a:chExt cx="1124059" cy="1209983"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4758,12 +4758,13 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
+            <a:endCxn id="27" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="4407713" y="3375188"/>
-            <a:ext cx="1876500" cy="809700"/>
+            <a:off x="4400811" y="3054554"/>
+            <a:ext cx="1124059" cy="1209983"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4786,11 +4787,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2152649" cy="138113"/>
+    <xdr:ext cx="1333500" cy="744992"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -4804,10 +4805,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipV="1">
-          <a:off x="4381500" y="3998259"/>
-          <a:ext cx="2152649" cy="138113"/>
-          <a:chOff x="4326365" y="2478247"/>
-          <a:chExt cx="2048336" cy="920753"/>
+          <a:off x="4395108" y="3279321"/>
+          <a:ext cx="1333500" cy="744992"/>
+          <a:chOff x="4300469" y="2478247"/>
+          <a:chExt cx="1268881" cy="4966612"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4825,8 +4826,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="4326365" y="2478247"/>
-            <a:ext cx="2048336" cy="920753"/>
+            <a:off x="4300469" y="2478247"/>
+            <a:ext cx="1268881" cy="4966612"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4848,12 +4849,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154643</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3400425" cy="2209800"/>
+    <xdr:ext cx="3739402" cy="1176618"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -4867,10 +4868,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="1176618"/>
-          <a:ext cx="3400425" cy="2209800"/>
-          <a:chOff x="4426763" y="2789400"/>
-          <a:chExt cx="1838400" cy="1981200"/>
+          <a:off x="4481714" y="1431551"/>
+          <a:ext cx="3739402" cy="1176618"/>
+          <a:chOff x="4426764" y="2789400"/>
+          <a:chExt cx="2021664" cy="1054899"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4882,14 +4883,12 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="19" idx="3"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4426763" y="2789400"/>
-            <a:ext cx="1838400" cy="1981200"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4426764" y="2789400"/>
+            <a:ext cx="2021664" cy="1054899"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4911,68 +4910,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2438400" cy="657225"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Shape 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4131563" y="3456150"/>
-          <a:ext cx="2428875" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>688275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>334489</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>112875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2750250" cy="763425"/>
@@ -4989,7 +4929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13547025" y="8323425"/>
+          <a:off x="14036882" y="8617339"/>
           <a:ext cx="2750250" cy="763425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5054,11 +4994,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>706210</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>86373</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2324100" cy="438150"/>
+    <xdr:ext cx="2512993" cy="543636"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="40" name="Shape 2">
@@ -5072,10 +5012,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11258550" y="8657104"/>
-          <a:ext cx="2324100" cy="438150"/>
-          <a:chOff x="4426763" y="2789400"/>
-          <a:chExt cx="1838400" cy="1981200"/>
+          <a:off x="11523889" y="8999052"/>
+          <a:ext cx="2512993" cy="543636"/>
+          <a:chOff x="4277346" y="2312420"/>
+          <a:chExt cx="1987817" cy="2458180"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -5087,12 +5027,14 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="39" idx="1"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4426763" y="2789400"/>
-            <a:ext cx="1838400" cy="1981200"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4277346" y="2312420"/>
+            <a:ext cx="1987817" cy="2458180"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5114,9 +5056,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>621600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240600</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>65250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2750250" cy="1392075"/>
@@ -5133,7 +5075,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13480350" y="5675475"/>
+          <a:off x="13942993" y="5508107"/>
           <a:ext cx="2750250" cy="1392075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5275,9 +5217,9 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142882</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="990600" cy="419100"/>
+    <xdr:ext cx="1368632" cy="618412"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="45" name="Shape 2">
@@ -5291,10 +5233,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12458700" y="5633757"/>
-          <a:ext cx="990600" cy="419100"/>
+          <a:off x="12574361" y="5585739"/>
+          <a:ext cx="1368632" cy="618412"/>
           <a:chOff x="4679250" y="3713325"/>
-          <a:chExt cx="1333500" cy="133200"/>
+          <a:chExt cx="1842389" cy="196546"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -5306,12 +5248,14 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="44" idx="1"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4679250" y="3713325"/>
-            <a:ext cx="1333500" cy="133200"/>
+            <a:ext cx="1842389" cy="196546"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5333,12 +5277,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>688275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168665</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2695575" cy="542925"/>
+    <xdr:ext cx="2390528" cy="688585"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="Shape 25">
@@ -5352,8 +5296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13547025" y="4656300"/>
-          <a:ext cx="2695575" cy="542925"/>
+          <a:off x="2027464" y="2264165"/>
+          <a:ext cx="2390528" cy="688585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5408,7 +5352,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t> caso no se encuentren resultados, se mostrará un mensaje.</a:t>
+            <a:t> caso no se encuentren resultados, se mostrará el mensaje "No  se encontraron cursos"</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -5418,16 +5362,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90921</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5438,12 +5382,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="47" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10039350" y="3638550"/>
-          <a:ext cx="3495675" cy="1485900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4417992" y="2608458"/>
+          <a:ext cx="3338080" cy="112972"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5470,22 +5416,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>157500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149488</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>994</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>197210</xdr:rowOff>
+      <xdr:colOff>121392</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>6709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11">
+        <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56516F1-5610-4C9E-B438-1F73FE533D49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E25FDE-7977-47D4-90A5-C3A79D0833C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5501,8 +5447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="1673488"/>
-          <a:ext cx="7544794" cy="8734522"/>
+          <a:off x="3729375" y="1562100"/>
+          <a:ext cx="7822017" cy="9055459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5723,11 +5669,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2105025" cy="542925"/>
+    <xdr:ext cx="2057400" cy="676275"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Shape 44">
@@ -5741,8 +5687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298250" y="3513300"/>
-          <a:ext cx="2095500" cy="533400"/>
+          <a:off x="11906251" y="8220075"/>
+          <a:ext cx="2057400" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5796,7 +5742,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2438400" cy="561975"/>
+    <xdr:ext cx="2438400" cy="638175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Shape 45">
@@ -5810,8 +5756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3503775"/>
-          <a:ext cx="2428875" cy="552450"/>
+          <a:off x="11715750" y="4914900"/>
+          <a:ext cx="2438400" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5989,11 +5935,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2552700" cy="561975"/>
+    <xdr:ext cx="3019425" cy="2219325"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Shape 49">
@@ -6007,8 +5953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4074413" y="3503775"/>
-          <a:ext cx="2543175" cy="552450"/>
+          <a:off x="542924" y="5153025"/>
+          <a:ext cx="3019425" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6051,9 +5997,142 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic guarda el curso como favorito y aparecerá en la pantalla de cursos favoritos.</a:t>
+            <a:t>Para usuario no logueado:</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se mostrará un mensaje</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> invitando al usuario a iniciar sesión para acceder a la funcionalidad.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Para usuario logueado:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Si el curso no está agregado como favorito, el icono será de color negro.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic al icono se agregará el curso a favoritos, el icono cambiara a color verde. Adicionalmente se debe mostrar un mensaje de confirmación.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6062,11 +6141,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>704849</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3962400" cy="47625"/>
+    <xdr:ext cx="3476626" cy="890588"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -6080,10 +6159,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipV="1">
-          <a:off x="3076575" y="5372100"/>
-          <a:ext cx="3962400" cy="47625"/>
-          <a:chOff x="3522038" y="3460988"/>
-          <a:chExt cx="3648000" cy="638100"/>
+          <a:off x="3562349" y="5372100"/>
+          <a:ext cx="3476626" cy="890588"/>
+          <a:chOff x="3969268" y="-7833389"/>
+          <a:chExt cx="3200770" cy="11932477"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -6100,9 +6179,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3522038" y="3460988"/>
-            <a:ext cx="3648000" cy="638100"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3969268" y="-7833389"/>
+            <a:ext cx="3200770" cy="11932477"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -6190,23 +6269,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628187</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372611</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>43294</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>166711</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>77947</xdr:rowOff>
+      <xdr:colOff>319177</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13">
+        <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3126AA4E-6F30-46A8-892F-B06C5847A657}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058379B5-0FD4-412A-BAC4-7AA9E360B40D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6222,8 +6301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4931246" y="995794"/>
-          <a:ext cx="8861818" cy="10556977"/>
+          <a:off x="6110023" y="986117"/>
+          <a:ext cx="7835507" cy="9247587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6235,11 +6314,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="561975"/>
+    <xdr:ext cx="3682253" cy="817469"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="Shape 51">
@@ -6253,8 +6332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4026788" y="3503775"/>
-          <a:ext cx="2638425" cy="552450"/>
+          <a:off x="14762628" y="2365001"/>
+          <a:ext cx="3682253" cy="817469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6278,14 +6357,15 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
-            <a:buNone/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -6299,18 +6379,18 @@
             </a:rPr>
             <a:t>Longitud máxima de 50 caracteres y solo debe</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -6321,7 +6401,41 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>admitir letras y numeros.</a:t>
+            <a:t>admitir letras y números.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>En caso</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> no se ingrese ningún valor se mostrará el mensaje de campo requerido</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -6343,12 +6457,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="1323975"/>
+    <xdr:ext cx="3005418" cy="806823"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -6362,10 +6476,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12896850" y="2857500"/>
-          <a:ext cx="1885950" cy="1323975"/>
-          <a:chOff x="4412550" y="3127463"/>
-          <a:chExt cx="1866900" cy="1305000"/>
+          <a:off x="11777383" y="2857500"/>
+          <a:ext cx="3005418" cy="806823"/>
+          <a:chOff x="3304390" y="3127464"/>
+          <a:chExt cx="2975060" cy="795260"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -6382,9 +6496,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4412550" y="3127463"/>
-            <a:ext cx="1866900" cy="1305000"/>
+          <a:xfrm flipV="1">
+            <a:off x="3304390" y="3127464"/>
+            <a:ext cx="2975060" cy="795260"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -6504,11 +6618,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>433107</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2124075" cy="381000"/>
+    <xdr:ext cx="2124075" cy="454959"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="Shape 54">
@@ -6522,8 +6636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4288725" y="3594263"/>
-          <a:ext cx="2114550" cy="371475"/>
+          <a:off x="14776636" y="4061011"/>
+          <a:ext cx="2124075" cy="454959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6589,11 +6703,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>626408</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="561975"/>
+    <xdr:ext cx="3250827" cy="1450041"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="Shape 55">
@@ -6607,8 +6721,132 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4026788" y="3503775"/>
-          <a:ext cx="2638425" cy="552450"/>
+          <a:off x="14969937" y="6629399"/>
+          <a:ext cx="3250827" cy="1450041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formato tipo password. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Longitud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> mínima de 3 caracteres.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>En caso de no ingresar ningún valor se mostrará el mensaje de campo requerido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>591109</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3745567" cy="972111"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Shape 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14934638" y="8418419"/>
+          <a:ext cx="3745567" cy="972111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6651,19 +6889,43 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic se despliega el administrador de archivos y solo se aceptan archivos jpg o png. tamañp</a:t>
+            <a:t>Al hacer clic:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Si la contraseña coincide con la del usuario, esta</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t> máximo 2MB</a:t>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> se actualizará a la nueva y se mostrará un mensaje de confirmación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>En caso de error, se mostrará el mensaje.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -6673,18 +6935,207 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2992531" cy="413497"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11799795" y="3676652"/>
+          <a:ext cx="2992531" cy="413497"/>
+          <a:chOff x="3331026" y="3322800"/>
+          <a:chExt cx="2962637" cy="405058"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="Shape 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="4" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3331026" y="3322800"/>
+            <a:ext cx="2962637" cy="405058"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75079</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2976842" cy="328332"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11799794" y="4288491"/>
+          <a:ext cx="2976842" cy="328332"/>
+          <a:chOff x="3307307" y="3040813"/>
+          <a:chExt cx="2947369" cy="320714"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="Shape 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="54" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3307307" y="3040813"/>
+            <a:ext cx="2947369" cy="320714"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313763</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3181350" cy="1168773"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11788587" y="6185648"/>
+          <a:ext cx="3181350" cy="1168773"/>
+          <a:chOff x="3854262" y="2872550"/>
+          <a:chExt cx="3162168" cy="1110796"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="Shape 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="55" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3854262" y="2872550"/>
+            <a:ext cx="3162168" cy="1110796"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43144</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="561975"/>
+    <xdr:ext cx="2905125" cy="461121"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Shape 56">
+        <xdr:cNvPr id="61" name="Shape 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6692,8 +7143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4026788" y="3503775"/>
-          <a:ext cx="2638425" cy="552450"/>
+          <a:off x="14847793" y="1567144"/>
+          <a:ext cx="2905125" cy="461121"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6736,321 +7187,20 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic se guardan las modificaciones en la base de datos.</a:t>
+            <a:t>Al hacer clic se despliega el menú con las opciones: Mi perfil, Favoritos</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1914525" cy="933450"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12877800" y="3676650"/>
-          <a:ext cx="1914525" cy="933450"/>
-          <a:chOff x="4398263" y="3322800"/>
-          <a:chExt cx="1895400" cy="914400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="57" name="Shape 57">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="4" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4398263" y="3322800"/>
-            <a:ext cx="1895400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1924050" cy="819150"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12896850" y="4635874"/>
-          <a:ext cx="1924050" cy="819150"/>
-          <a:chOff x="4393500" y="3379950"/>
-          <a:chExt cx="1905000" cy="800100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="Shape 58">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="54" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4393500" y="3379950"/>
-            <a:ext cx="1905000" cy="800100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1962150" cy="809625"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12906375" y="5855634"/>
-          <a:ext cx="1962150" cy="809625"/>
-          <a:chOff x="4374450" y="3379950"/>
-          <a:chExt cx="1943100" cy="800100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="59" name="Shape 59">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="5" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4374450" y="3379950"/>
-            <a:ext cx="1943100" cy="800100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3171825" cy="381000"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11703424" y="6949888"/>
-          <a:ext cx="3171825" cy="381000"/>
-          <a:chOff x="3769613" y="3598875"/>
-          <a:chExt cx="3152700" cy="362100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="60" name="Shape 60">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="6" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3769613" y="3598875"/>
-            <a:ext cx="3152700" cy="362100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2905125" cy="542925"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Shape 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3898200" y="3513300"/>
-          <a:ext cx="2895600" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -7061,7 +7211,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic se despliega la opción de Mi perfil y de cerrar sesión.</a:t>
+            <a:t> y  Cerrar sesión.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -7074,9 +7224,9 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2857500" cy="381000"/>
+    <xdr:ext cx="2857500" cy="443753"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="62" name="Shape 62">
@@ -7090,8 +7240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922013" y="3594263"/>
-          <a:ext cx="2847975" cy="371475"/>
+          <a:off x="11452972" y="228599"/>
+          <a:ext cx="2857500" cy="443753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7145,11 +7295,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83206</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1428750" cy="1171575"/>
+    <xdr:ext cx="1602439" cy="213738"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -7163,10 +7313,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12909176" y="1209675"/>
-          <a:ext cx="1428750" cy="1171575"/>
-          <a:chOff x="4636388" y="3203663"/>
-          <a:chExt cx="1419300" cy="1152600"/>
+          <a:off x="13245354" y="1797706"/>
+          <a:ext cx="1602439" cy="213738"/>
+          <a:chOff x="4970341" y="3782183"/>
+          <a:chExt cx="1591840" cy="210277"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -7179,13 +7329,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="11" idx="1"/>
+            <a:endCxn id="61" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4636388" y="3203663"/>
-            <a:ext cx="1419300" cy="1152600"/>
+          <a:xfrm flipV="1">
+            <a:off x="4970341" y="3782183"/>
+            <a:ext cx="1591840" cy="210277"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7207,10 +7357,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>613523</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2857500" cy="381000"/>
     <xdr:sp macro="" textlink="">
@@ -7226,8 +7376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922013" y="3594263"/>
-          <a:ext cx="2847975" cy="371475"/>
+          <a:off x="2765052" y="2563906"/>
+          <a:ext cx="2857500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7280,12 +7430,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602326</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1039091" cy="1376218"/>
+    <xdr:ext cx="2445679" cy="647700"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="9" name="Shape 2">
@@ -7298,11 +7448,11 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm flipH="1">
-          <a:off x="7258356" y="800100"/>
-          <a:ext cx="1039091" cy="1376218"/>
-          <a:chOff x="5212650" y="2979900"/>
-          <a:chExt cx="266700" cy="1600200"/>
+        <a:xfrm flipV="1">
+          <a:off x="5622561" y="2106706"/>
+          <a:ext cx="2445679" cy="647700"/>
+          <a:chOff x="6303848" y="-23094494"/>
+          <a:chExt cx="189881" cy="22669990"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -7315,13 +7465,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="66" idx="2"/>
+            <a:endCxn id="66" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="5212650" y="2979900"/>
-            <a:ext cx="266700" cy="1600200"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6303848" y="-23094494"/>
+            <a:ext cx="189881" cy="22669990"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7343,12 +7493,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>216579</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1039091" cy="1376218"/>
+    <xdr:ext cx="448847" cy="1299882"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="31" name="Shape 2">
@@ -7362,8 +7512,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11691403" y="638736"/>
-          <a:ext cx="1039091" cy="1376218"/>
+          <a:off x="12281646" y="638736"/>
+          <a:ext cx="448847" cy="1299882"/>
           <a:chOff x="5212650" y="2979900"/>
           <a:chExt cx="266700" cy="1600200"/>
         </a:xfrm>
@@ -7402,45 +7552,395 @@
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417419</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3112434" cy="1568825"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Shape 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC8CE4B-0101-449E-B3FD-6F78CEE33CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14760948" y="4717675"/>
+          <a:ext cx="3112434" cy="1568825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> hacer clic:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Si no se ha realizado cambios</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> en el formulario se mostrará el mensaje de "No hay datos que actualizar".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Si se realizaron cambios en el formulario, se realizará la actualización y se mostrará un mensaje de confirmación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>En caso</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> de error, se mostrará el mensaje.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89663</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5090271" cy="190486"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7613142C-130B-42E4-8600-A3C19C026C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9670677" y="5311604"/>
+          <a:ext cx="5090271" cy="190486"/>
+          <a:chOff x="2756026" y="3845956"/>
+          <a:chExt cx="5059578" cy="181036"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="Shape 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19DD48F-4E52-47F2-8001-6EC623C6CB1F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="40" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2756026" y="3845956"/>
+            <a:ext cx="5059578" cy="181036"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324969</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3170144" cy="776566"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D7E475-FBA0-412B-927D-9CFCDDF37625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11799793" y="6577853"/>
+          <a:ext cx="3170144" cy="776566"/>
+          <a:chOff x="3713919" y="3100462"/>
+          <a:chExt cx="3151029" cy="738045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="Shape 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709985ED-4126-40CE-8F41-44A02489F019}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="55" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3713919" y="3100462"/>
+            <a:ext cx="3151029" cy="738045"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313774</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5297583" cy="1822357"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DE3674-552E-44AF-A1BB-AF5C818D1378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipV="1">
+          <a:off x="9637068" y="7082118"/>
+          <a:ext cx="5297583" cy="1822357"/>
+          <a:chOff x="6226111" y="-30242594"/>
+          <a:chExt cx="411301" cy="63783875"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="Shape 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B30334-DC28-45D4-8329-2223BDB2AF4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="56" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6226111" y="-30242594"/>
+            <a:ext cx="411301" cy="63783875"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>556618</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46088</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7286625" cy="8543925"/>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628063</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171365</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image6.png">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4817E3-7C39-4B16-91BA-5B57C5658CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5611013" y="599153"/>
+          <a:ext cx="10180235" cy="10648865"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -7653,11 +8153,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1876425" cy="942975"/>
+    <xdr:ext cx="2289071" cy="1438888"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="3" name="Shape 2">
@@ -7671,10 +8171,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4332339" y="3753772"/>
-          <a:ext cx="1876425" cy="942975"/>
-          <a:chOff x="4417388" y="3317963"/>
-          <a:chExt cx="1857300" cy="924000"/>
+          <a:off x="4332340" y="3753773"/>
+          <a:ext cx="2289071" cy="1438888"/>
+          <a:chOff x="4417389" y="3317964"/>
+          <a:chExt cx="2265740" cy="1409934"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -7686,14 +8186,12 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="7" idx="3"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4417388" y="3317963"/>
-            <a:ext cx="1857300" cy="924000"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4417389" y="3317964"/>
+            <a:ext cx="2265740" cy="1409934"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7721,22 +8219,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>652399</xdr:colOff>
+      <xdr:colOff>54610</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>169624</xdr:rowOff>
+      <xdr:rowOff>13049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>268644</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1111</xdr:rowOff>
+      <xdr:colOff>606385</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CF3324-3F2E-4672-81AD-87D57B78B0EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C94E56A-E935-467A-A113-722D37EB75C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7752,8 +8250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6393495" y="1735377"/>
-          <a:ext cx="7510252" cy="7855974"/>
+          <a:off x="5795706" y="1578802"/>
+          <a:ext cx="8445782" cy="8834570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8393,12 +8891,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>635173</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>70972</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2359200" cy="185805"/>
+    <xdr:ext cx="2276736" cy="685808"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="23" name="Shape 2">
@@ -8412,8 +8910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12835002" y="6138267"/>
-          <a:ext cx="2359200" cy="185805"/>
+          <a:off x="12917466" y="6138267"/>
+          <a:ext cx="2276736" cy="685808"/>
           <a:chOff x="4181315" y="4216415"/>
           <a:chExt cx="2351274" cy="183130"/>
         </a:xfrm>
@@ -8456,10 +8954,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>248298</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>87889</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>196107</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127033</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2924175" cy="400050"/>
     <xdr:sp macro="" textlink="">
@@ -8475,7 +8973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13165764" y="7720937"/>
+          <a:off x="14548847" y="7955800"/>
           <a:ext cx="2924175" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8531,7 +9029,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t> en caso se presenten mas de 12 instituciones.</a:t>
+            <a:t> en caso se presenten más de 12 instituciones.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -8542,11 +9040,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>396134</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>174297</xdr:rowOff>
+      <xdr:colOff>456677</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>131348</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2005074" cy="113599"/>
+    <xdr:ext cx="3327614" cy="181812"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="27" name="Shape 2">
@@ -8560,10 +9058,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11160689" y="7807345"/>
-          <a:ext cx="2005074" cy="113599"/>
-          <a:chOff x="4181315" y="4399546"/>
-          <a:chExt cx="1998338" cy="111964"/>
+          <a:off x="11221232" y="8155834"/>
+          <a:ext cx="3327614" cy="181812"/>
+          <a:chOff x="4241654" y="4743013"/>
+          <a:chExt cx="3316435" cy="179195"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -8580,9 +9078,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4181315" y="4399546"/>
-            <a:ext cx="1998338" cy="111964"/>
+          <a:xfrm flipV="1">
+            <a:off x="4241654" y="4743013"/>
+            <a:ext cx="3316435" cy="179195"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8609,23 +9107,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495404</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158748</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584798</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>6851</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>105516</xdr:rowOff>
+      <xdr:colOff>568581</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>20036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC104EA6-1C75-447D-BB76-32CC80FB0E34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E950D113-4E34-4CC6-8E01-F158567EA757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8641,8 +9139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4818289" y="1135671"/>
-          <a:ext cx="8877697" cy="12451383"/>
+          <a:off x="4187202" y="744904"/>
+          <a:ext cx="10070514" cy="14124363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8716,7 +9214,31 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos lleva a la página del insituto.</a:t>
+            <a:t>Al hacer clic nos lleva a la página de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> la institución</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -8885,11 +9407,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3248025" cy="552450"/>
+    <xdr:ext cx="2369038" cy="552450"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="94" name="Shape 94">
@@ -8903,8 +9425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3726750" y="3508538"/>
-          <a:ext cx="3238500" cy="542925"/>
+          <a:off x="1440963" y="10355385"/>
+          <a:ext cx="2369038" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9228,11 +9750,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>158745</xdr:rowOff>
+      <xdr:colOff>279398</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>102580</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="795215" cy="139212"/>
+    <xdr:ext cx="856273" cy="275980"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -9246,10 +9768,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4602284" y="8755668"/>
-          <a:ext cx="795215" cy="139212"/>
-          <a:chOff x="4197895" y="2421825"/>
-          <a:chExt cx="787772" cy="136519"/>
+          <a:off x="4602283" y="8894888"/>
+          <a:ext cx="856273" cy="275980"/>
+          <a:chOff x="4197896" y="2558349"/>
+          <a:chExt cx="848259" cy="270641"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -9266,9 +9788,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4197895" y="2421825"/>
-            <a:ext cx="787772" cy="136519"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4197896" y="2558349"/>
+            <a:ext cx="848259" cy="270641"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -9290,12 +9812,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>85482</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207598</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>80839</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1252658" cy="167054"/>
+    <xdr:ext cx="1086826" cy="529736"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -9309,10 +9831,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4694361" y="10440867"/>
-          <a:ext cx="1252658" cy="167054"/>
-          <a:chOff x="4188789" y="3284398"/>
-          <a:chExt cx="1242392" cy="162377"/>
+          <a:off x="3810002" y="10631608"/>
+          <a:ext cx="1086826" cy="529736"/>
+          <a:chOff x="3311677" y="3469806"/>
+          <a:chExt cx="1077919" cy="514906"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -9324,12 +9846,14 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="94" idx="3"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4188789" y="3284398"/>
-            <a:ext cx="1242392" cy="162377"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3311677" y="3469806"/>
+            <a:ext cx="1077919" cy="514906"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -9521,44 +10045,50 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528114</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7315200" cy="4972050"/>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130366</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112961</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image8.png">
+        <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD50FD4-6DA4-4995-941D-7A3FC355AC29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="619125"/>
-          <a:ext cx="7315200" cy="4972050"/>
+          <a:off x="4099989" y="895350"/>
+          <a:ext cx="10317877" cy="4627811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -9624,7 +10154,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a las instituciones.</a:t>
+            <a:t>Se puede habilitar o deshabilitar a las instituciones</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -9634,12 +10164,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3019425" cy="685800"/>
+    <xdr:ext cx="2524124" cy="752475"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="Shape 76">
@@ -9653,8 +10183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3836288" y="3441863"/>
-          <a:ext cx="3019425" cy="676275"/>
+          <a:off x="971551" y="2676524"/>
+          <a:ext cx="2524124" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9708,11 +10238,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4796</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1504950" cy="38100"/>
+    <xdr:ext cx="2495549" cy="109539"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -9726,10 +10256,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3295650" y="1943100"/>
-          <a:ext cx="1504950" cy="38100"/>
-          <a:chOff x="4593675" y="3770475"/>
-          <a:chExt cx="1504800" cy="18900"/>
+          <a:off x="3495674" y="3052796"/>
+          <a:ext cx="2495549" cy="109539"/>
+          <a:chOff x="4479387" y="3758662"/>
+          <a:chExt cx="2495301" cy="54338"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -9742,13 +10272,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="22" idx="3"/>
+            <a:endCxn id="76" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4593675" y="3770475"/>
-            <a:ext cx="1504800" cy="18900"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4479387" y="3758662"/>
+            <a:ext cx="2495301" cy="54338"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -9829,6 +10359,361 @@
         </xdr:spPr>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3257550" cy="1047751"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B8B979-A2A1-4729-A421-9DF3065D87AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="6115049"/>
+          <a:ext cx="3257550" cy="1047751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Para</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> cada institución se mostrará un botón para editar.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> hacer clic en el botón editar se mostrará un ventana emergente con el formulario para editar el estado de la institución.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85721</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1181100" cy="2838448"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D551F2-7A07-463C-A998-8CC1223744E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10086971" y="3314699"/>
+          <a:ext cx="1181100" cy="2838448"/>
+          <a:chOff x="10917648" y="3812983"/>
+          <a:chExt cx="1180983" cy="1408043"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Shape 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B38586C-91FF-4FCE-B31E-07D19C304D4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10917648" y="3812983"/>
+            <a:ext cx="1180983" cy="1408043"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="1819276"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A592E3A-5DFA-4D37-AB40-DD4569063C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14620875" y="3457574"/>
+          <a:ext cx="3048000" cy="1819276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Solo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> el campo "Estado" será editable con las opciones: Activo, Inactivo.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic en el botón "Guardar institución":</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Si no se ha modifica el formulario, se mostrará el mensaje</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> "No hay nada que actualizar".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Si se ha modificado el formulario, se actualizará y mostrará el mensaje de confirmación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>En caso de error, se mostrará el mensaje.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -38579,8 +39464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39579,7 +40464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41575,8 +42462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC7684-AD98-4304-9F26-94626741FBB1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41590,8 +42477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EA8CE4-EE99-48AA-A8E5-DCC306AF2EAD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView showGridLines="0" topLeftCell="B6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41605,8 +42492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42605,7 +43492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
@@ -43605,8 +44492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44605,8 +45492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45605,8 +46492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46606,7 +47493,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47605,8 +48492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AC35" sqref="AC35"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48606,7 +49493,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332CFEF-95F7-4511-B091-B2E05459468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC88122-A84B-4E18-AE55-BBABE166A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -1673,54 +1673,64 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7286625" cy="4953000"/>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>501808</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16889</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image7.png">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC4B593-9441-4A11-8875-AAA21FC9845A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3731250" y="600075"/>
+          <a:ext cx="11772433" cy="8427464"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2686050" cy="400050"/>
+    <xdr:ext cx="2867025" cy="1143000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Shape 71">
+        <xdr:cNvPr id="21" name="Shape 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5F4E1C-58F3-42F8-979C-CEFA8CBEA796}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,8 +1738,127 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4007738" y="3584738"/>
-          <a:ext cx="2676525" cy="390525"/>
+          <a:off x="12858750" y="371475"/>
+          <a:ext cx="2867025" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> ingresar un término, se filtrará los elementos de la tabla:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> mostrará los usuarios que tengan relación con el término de búsqueda.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>En caso de no haber coincidencias, se mostrará el mensaje correspondiente.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2524124" cy="752475"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D90EC-2A67-498D-9C57-2A557A6B25C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971551" y="2676524"/>
+          <a:ext cx="2524124" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,7 +1901,31 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
+            <a:t>Se puede ver a todos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> los usuarios</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> que se muestran por defecto en la pantalla de instituciones.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -1782,18 +1935,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4796</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1476375" cy="323850"/>
+    <xdr:ext cx="2495549" cy="109539"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
+        <xdr:cNvPr id="23" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E359A2D7-14F6-40FB-808C-FD72B9BB8DE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,29 +1954,29 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4810125" y="2867025"/>
-          <a:ext cx="1476375" cy="323850"/>
-          <a:chOff x="4617263" y="3627600"/>
-          <a:chExt cx="1457400" cy="304800"/>
+          <a:off x="3495674" y="3052796"/>
+          <a:ext cx="2495549" cy="109539"/>
+          <a:chOff x="4479387" y="3758662"/>
+          <a:chExt cx="2495301" cy="54338"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="72" name="Shape 72">
+          <xdr:cNvPr id="24" name="Shape 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B222E4D7-D6C5-4E17-8CD0-7A789EBF9B50}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="3"/>
+            <a:endCxn id="22" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4617263" y="3627600"/>
-            <a:ext cx="1457400" cy="304800"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4479387" y="3758662"/>
+            <a:ext cx="2495301" cy="54338"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1845,18 +1998,81 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2924175" cy="400050"/>
+    <xdr:ext cx="2705100" cy="1495424"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76534236-068F-4880-9793-CE696CC845B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10172700" y="962026"/>
+          <a:ext cx="2705100" cy="1495424"/>
+          <a:chOff x="3988892" y="3118089"/>
+          <a:chExt cx="2685771" cy="1474129"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Shape 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F4CFB4-460D-4344-9337-AD06FD53AB20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="25" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3988892" y="3118089"/>
+            <a:ext cx="2685771" cy="1474129"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3257550" cy="1362075"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Shape 73">
+        <xdr:cNvPr id="27" name="Shape 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0892F675-3FF1-4F53-9A27-3C13220012D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,8 +2080,700 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3888675" y="3584738"/>
-          <a:ext cx="2914650" cy="390525"/>
+          <a:off x="4838700" y="5019675"/>
+          <a:ext cx="3257550" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Para</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> cada usuario se mostrará un botón para editar o eliminar.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> hacer clic en el botón eliminar se mostrará un ventana de confirmación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Al hacer clic en el botón editar se mostrará una ventana emergente con el formularió para editar el usuario.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2771774" cy="1762127"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255C4895-89D5-4FC0-8912-9B240B3938AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8077199" y="3600450"/>
+          <a:ext cx="2771774" cy="1762127"/>
+          <a:chOff x="8908077" y="3954732"/>
+          <a:chExt cx="2771500" cy="874122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Shape 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B495CDD8-D708-4A36-A3E0-1D0A054E5FDF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8908077" y="3954732"/>
+            <a:ext cx="2771500" cy="874122"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3276600" cy="2714627"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D33CE4-AE3C-4669-BCED-DCBCA0CB2AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15716250" y="5610223"/>
+          <a:ext cx="3276600" cy="2714627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Todos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> los campos serán obligatorios a excepción de "Nueva contraseña".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>En caso se deje algún campo sin valor se mostrará el mensaje de campo requerido.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic en "Guardar usuario":</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se actualizará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> los datos del usuario y se mostrará un mensaje de confirmación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>En caso de error se mostrará un mensaje.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Al hacer clic en el botón "Cancelar", en la "X" o fuera de la ventana, esta se cerrará, cancelando la operación. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="2714627"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51800F85-32B4-4C8B-9670-1169F3485384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15735300" y="2095498"/>
+          <a:ext cx="3048000" cy="2714627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Todos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> los campos serán obligatorios.".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>En caso se deje algún campo sin valor se mostrará el mensaje de campo requerido.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic en "Guardar usuario":</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se registrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> el usuario y se mostrará un mensaje de confirmación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>En caso de error se mostrará un mensaje.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Al hacer clic en el botón "Cancelar", en la "X" o fuera de la ventana, esta se cerrará, cancelando la operación. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2524124" cy="666751"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB3C6DF-C1F8-4E50-AB12-F5CE8C7AF8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847726" y="1047749"/>
+          <a:ext cx="2524124" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1908,7 +2816,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
+            <a:t>Al hacer clic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> se mostrará una ventana emergente con el formulario para crear el nuevo usuario.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -1918,18 +2838,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100046</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3181350" cy="647700"/>
+    <xdr:ext cx="2400301" cy="604804"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
+        <xdr:cNvPr id="37" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8C50CE-1162-42DB-9723-EE1C1E60AAF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,29 +2857,27 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11191875" y="2190750"/>
-          <a:ext cx="3181350" cy="647700"/>
-          <a:chOff x="3764850" y="3465825"/>
-          <a:chExt cx="3162300" cy="628500"/>
+          <a:off x="3343274" y="1433546"/>
+          <a:ext cx="2400301" cy="604804"/>
+          <a:chOff x="4479387" y="3758662"/>
+          <a:chExt cx="2495301" cy="54338"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="74" name="Shape 74">
+          <xdr:cNvPr id="38" name="Shape 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD184E4-892D-4C9C-8631-AE4C1083504E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="44" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3764850" y="3465825"/>
-            <a:ext cx="3162300" cy="628500"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4479387" y="3758662"/>
+            <a:ext cx="2495301" cy="54338"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1979,51 +2897,168 @@
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3257550" cy="800100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Shape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D446CA09-EDDB-4ADB-A804-DDC1184C1000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="7715251"/>
+          <a:ext cx="3257550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> hacer clic en "Eliminar" se eliminará el usuario y se mostrará un mensaje de confirmación</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic en "Cancelar" se cancela la eliminación.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7296150" cy="5019675"/>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114506</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>84386</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image11.png">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F11A7D1-98D2-4334-A211-7CA7929CAC03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="3891974"/>
+          <a:ext cx="9210881" cy="5669787"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>473870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3352800" cy="581025"/>
     <xdr:sp macro="" textlink="">
@@ -2039,8 +3074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3674363" y="3494250"/>
-          <a:ext cx="3343275" cy="571500"/>
+          <a:off x="16190120" y="5157787"/>
+          <a:ext cx="3352800" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2083,7 +3118,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Puedo visualizar reportes estadísticos de los usuarios, instituciones, cursos y búsquedas realizadas en el sistema.</a:t>
+            <a:t>Puedo visualizar información</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> relacionada con el número de clientes, cursos e instituciones registradas  en el sistema.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -2094,11 +3141,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="1343025"/>
+    <xdr:ext cx="3557589" cy="492919"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -2112,10 +3159,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12258675" y="2876550"/>
-          <a:ext cx="2057400" cy="1343025"/>
-          <a:chOff x="4326825" y="3118088"/>
-          <a:chExt cx="2038200" cy="1323900"/>
+          <a:off x="12632532" y="5448300"/>
+          <a:ext cx="3557589" cy="492919"/>
+          <a:chOff x="-12924744" y="1122849"/>
+          <a:chExt cx="3524389" cy="485900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2128,13 +3175,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="4" idx="1"/>
+            <a:endCxn id="107" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4326825" y="3118088"/>
-            <a:ext cx="2038200" cy="1323900"/>
+          <a:xfrm flipV="1">
+            <a:off x="-12924744" y="1122849"/>
+            <a:ext cx="3524389" cy="485900"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -10091,12 +11138,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2867025" cy="400050"/>
+    <xdr:ext cx="2867025" cy="1143000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Shape 75">
@@ -10110,8 +11157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3917250" y="3579975"/>
-          <a:ext cx="2857500" cy="400050"/>
+          <a:off x="12868275" y="561975"/>
+          <a:ext cx="2867025" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10150,11 +11197,57 @@
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a las instituciones</a:t>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> ingresar un término, se filtrará los elementos de la tabla:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> mostrará las instituciones que tengan relación con el término de búsqueda.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>En caso de no haber coincidencias, se mostrará el mensaje correspondiente.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -39465,7 +40558,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39473,986 +40566,986 @@
     <col min="1" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -40464,8 +41557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40473,986 +41566,986 @@
     <col min="1" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -41464,7 +42557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="E15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42462,7 +43557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC7684-AD98-4304-9F26-94626741FBB1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>

--- a/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC88122-A84B-4E18-AE55-BBABE166A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75EC7F8-721B-4E19-BA2E-4862EA211A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="CA_FAVORITOS" sheetId="6" r:id="rId7"/>
     <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId8"/>
     <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId9"/>
-    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId10"/>
-    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId11"/>
-    <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
+    <sheet name="CA_GESTION_I" sheetId="8" r:id="rId10"/>
+    <sheet name="CA_GESTION_U" sheetId="7" r:id="rId11"/>
+    <sheet name="CA_PANEL_INICIO" sheetId="11" r:id="rId12"/>
     <sheet name="CA_RECUPERARC" sheetId="13" r:id="rId13"/>
     <sheet name="CA_NUEVAC" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Modificación de Historias de Usuario</t>
   </si>
@@ -64,22 +64,10 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>poder transmitir la información relevante del sistema a las partes interesadas</t>
-  </si>
-  <si>
-    <t>vizualizar reportes</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Visualizar reportes</t>
-  </si>
-  <si>
     <t>A04</t>
-  </si>
-  <si>
-    <t>Funcionalidades administración</t>
   </si>
   <si>
     <t>gestionar las instituciones que se mostrarán a los clientes</t>
@@ -324,9 +312,6 @@
   <si>
     <t>para poder ingresar al sistema en caso haya olvidado mi contraseña</t>
   </si>
-  <si>
-    <t>A07</t>
-  </si>
 </sst>
 </file>
 
@@ -509,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -529,10 +514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2519,12 +2500,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3048000" cy="2714627"/>
+    <xdr:ext cx="3352800" cy="3438527"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Shape 76">
@@ -2538,8 +2519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15735300" y="2095498"/>
-          <a:ext cx="3048000" cy="2714627"/>
+          <a:off x="15621000" y="1676398"/>
+          <a:ext cx="3352800" cy="3438527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2594,6 +2575,141 @@
               <a:sym typeface="Calibri"/>
             </a:rPr>
             <a:t> los campos serán obligatorios.".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Validaciones:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Nombre y apellidos: Max. 50 caracteres, solo letras.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Usuario: Max. 50 caracteres, solo letras y números.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Correo: Formato de correo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Contraseña: Min. 3 caracteres</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12013,10 +12129,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12060,11 +12176,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>87</v>
+      <c r="A2" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -12089,9 +12205,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -12116,12 +12232,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>86</v>
+      <c r="A4" s="16" t="s">
+        <v>82</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>85</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -12147,12 +12263,12 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>84</v>
+      <c r="A5" s="16" t="s">
+        <v>80</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
-        <v>83</v>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -12178,12 +12294,12 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>82</v>
+      <c r="A6" s="16" t="s">
+        <v>78</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>81</v>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -12237,67 +12353,67 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="F8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="H8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7">
         <v>93</v>
@@ -12325,21 +12441,21 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7">
         <v>88</v>
@@ -12367,21 +12483,21 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7">
         <v>85</v>
@@ -12409,23 +12525,23 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>61</v>
+      <c r="A12" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7">
         <v>85</v>
@@ -12453,21 +12569,21 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7">
         <v>81</v>
@@ -12495,23 +12611,23 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>54</v>
+      <c r="A14" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7">
         <v>75</v>
@@ -12539,21 +12655,21 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7">
         <v>70</v>
@@ -12581,23 +12697,23 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>45</v>
+      <c r="A16" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7">
         <v>68</v>
@@ -12625,21 +12741,21 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>36</v>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="G17" s="7">
         <v>62</v>
@@ -12667,23 +12783,23 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>35</v>
+      <c r="A18" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7">
         <v>50</v>
@@ -12711,21 +12827,21 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7">
         <v>48</v>
@@ -12753,21 +12869,21 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7">
         <v>48</v>
@@ -12795,21 +12911,21 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7">
         <v>47</v>
@@ -12837,23 +12953,23 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>19</v>
+      <c r="A22" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="7">
         <v>42</v>
@@ -12881,21 +12997,21 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>11</v>
+      <c r="F23" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="G23" s="7">
         <v>38</v>
@@ -12922,31 +13038,15 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6">
-        <v>13</v>
-      </c>
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -13078,12 +13178,18 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -13107,17 +13213,17 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
+      <c r="A30" s="4">
+        <v>44505</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
+      <c r="B30" s="3">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>2</v>
+      <c r="C30" s="25" t="s">
+        <v>1</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -13142,16 +13248,16 @@
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>44505</v>
+        <v>44519</v>
       </c>
       <c r="B31" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>1</v>
+      <c r="C31" s="25" t="s">
+        <v>0</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -13174,18 +13280,12 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44519</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -40508,40 +40608,12 @@
       <c r="Y1007" s="2"/>
       <c r="Z1007" s="2"/>
     </row>
-    <row r="1008" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1008" s="2"/>
-      <c r="B1008" s="2"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-      <c r="G1008" s="2"/>
-      <c r="H1008" s="2"/>
-      <c r="I1008" s="2"/>
-      <c r="J1008" s="2"/>
-      <c r="K1008" s="2"/>
-      <c r="L1008" s="2"/>
-      <c r="M1008" s="2"/>
-      <c r="N1008" s="2"/>
-      <c r="O1008" s="2"/>
-      <c r="P1008" s="2"/>
-      <c r="Q1008" s="2"/>
-      <c r="R1008" s="2"/>
-      <c r="S1008" s="2"/>
-      <c r="T1008" s="2"/>
-      <c r="U1008" s="2"/>
-      <c r="V1008" s="2"/>
-      <c r="W1008" s="2"/>
-      <c r="X1008" s="2"/>
-      <c r="Y1008" s="2"/>
-      <c r="Z1008" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -40558,7 +40630,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41557,8 +41629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42558,7 +42630,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43557,7 +43629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC7684-AD98-4304-9F26-94626741FBB1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
